--- a/Excel/EquipRefineConfig.xlsx
+++ b/Excel/EquipRefineConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2125,7 +2125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -2154,34 +2154,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2195,14 +2167,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2242,6 +2206,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2292,7 +2271,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2313,55 +2313,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2379,31 +2337,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2427,6 +2373,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2439,7 +2397,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2463,7 +2445,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2487,6 +2481,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2504,21 +2504,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2551,6 +2536,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2607,148 +2607,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2769,52 +2769,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -3088,18 +3088,18 @@
   <dimension ref="C1:G355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" style="1" width="9.0" collapsed="false"/>
-    <col min="3" max="4" customWidth="true" style="1" width="8.75" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="2" width="20.125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="2" width="16.375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="1" width="13.625" collapsed="false"/>
-    <col min="8" max="16381" style="1" width="9.0" collapsed="false"/>
-    <col min="16382" max="16384" style="3" width="9.0" collapsed="false"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="4" width="8.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="8" max="16381" width="9" style="1"/>
+    <col min="16382" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="5:6">
@@ -3164,7 +3164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="24.0" customHeight="true">
+    <row r="6" ht="24" customHeight="1" spans="3:7">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="24.0" customHeight="true">
+    <row r="7" ht="24" customHeight="1" spans="3:7">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="24.0" customHeight="true">
+    <row r="8" ht="24" customHeight="1" spans="3:7">
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="24.0" customHeight="true">
+    <row r="9" ht="24" customHeight="1" spans="3:7">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="24.0" customHeight="true">
+    <row r="10" ht="24" customHeight="1" spans="3:7">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="24.0" customHeight="true">
+    <row r="11" ht="24" customHeight="1" spans="3:7">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="24.0" customHeight="true">
+    <row r="12" ht="24" customHeight="1" spans="3:7">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" ht="24.0" customHeight="true">
+    <row r="13" ht="24" customHeight="1" spans="3:7">
       <c r="C13" t="s">
         <v>23</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" ht="24.0" customHeight="true">
+    <row r="14" ht="24" customHeight="1" spans="3:7">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" ht="24.0" customHeight="true">
+    <row r="15" ht="24" customHeight="1" spans="3:7">
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" ht="24.0" customHeight="true">
+    <row r="16" ht="24" customHeight="1" spans="3:7">
       <c r="C16" t="s">
         <v>28</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="24.0" customHeight="true">
+    <row r="17" ht="24" customHeight="1" spans="3:7">
       <c r="C17" t="s">
         <v>30</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" ht="24.0" customHeight="true">
+    <row r="18" ht="24" customHeight="1" spans="3:7">
       <c r="C18" t="s">
         <v>32</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" ht="24.0" customHeight="true">
+    <row r="19" ht="24" customHeight="1" spans="3:7">
       <c r="C19" t="s">
         <v>34</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" ht="24.0" customHeight="true">
+    <row r="20" ht="24" customHeight="1" spans="3:7">
       <c r="C20" t="s">
         <v>36</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" ht="24.0" customHeight="true">
+    <row r="21" ht="24" customHeight="1" spans="3:7">
       <c r="C21" t="s">
         <v>38</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" ht="24.0" customHeight="true">
+    <row r="22" ht="24" customHeight="1" spans="3:7">
       <c r="C22" t="s">
         <v>40</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" ht="24.0" customHeight="true">
+    <row r="23" ht="24" customHeight="1" spans="3:7">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" ht="24.0" customHeight="true">
+    <row r="24" ht="24" customHeight="1" spans="3:7">
       <c r="C24" t="s">
         <v>44</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" ht="24.0" customHeight="true">
+    <row r="25" ht="24" customHeight="1" spans="3:7">
       <c r="C25" t="s">
         <v>46</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" ht="24.0" customHeight="true">
+    <row r="26" ht="24" customHeight="1" spans="3:7">
       <c r="C26" t="s">
         <v>48</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" ht="24.0" customHeight="true">
+    <row r="27" ht="24" customHeight="1" spans="3:7">
       <c r="C27" t="s">
         <v>50</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" ht="24.0" customHeight="true">
+    <row r="28" ht="24" customHeight="1" spans="3:7">
       <c r="C28" t="s">
         <v>52</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" ht="24.0" customHeight="true">
+    <row r="29" ht="24" customHeight="1" spans="3:7">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" ht="24.0" customHeight="true">
+    <row r="30" ht="24" customHeight="1" spans="3:7">
       <c r="C30" t="s">
         <v>56</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" ht="24.0" customHeight="true">
+    <row r="31" ht="24" customHeight="1" spans="3:7">
       <c r="C31" t="s">
         <v>58</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" ht="24.0" customHeight="true">
+    <row r="32" ht="24" customHeight="1" spans="3:7">
       <c r="C32" t="s">
         <v>60</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" ht="24.0" customHeight="true">
+    <row r="33" ht="24" customHeight="1" spans="3:7">
       <c r="C33" t="s">
         <v>62</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" ht="24.0" customHeight="true">
+    <row r="34" ht="24" customHeight="1" spans="3:7">
       <c r="C34" t="s">
         <v>64</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" ht="24.0" customHeight="true">
+    <row r="35" ht="24" customHeight="1" spans="3:7">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" ht="24.0" customHeight="true">
+    <row r="36" ht="24" customHeight="1" spans="3:7">
       <c r="C36" t="s">
         <v>67</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" ht="24.0" customHeight="true">
+    <row r="37" ht="24" customHeight="1" spans="3:7">
       <c r="C37" t="s">
         <v>69</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" ht="24.0" customHeight="true">
+    <row r="38" ht="24" customHeight="1" spans="3:7">
       <c r="C38" t="s">
         <v>71</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" ht="24.0" customHeight="true">
+    <row r="39" ht="24" customHeight="1" spans="3:7">
       <c r="C39" t="s">
         <v>73</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" ht="24.0" customHeight="true">
+    <row r="40" ht="24" customHeight="1" spans="3:7">
       <c r="C40" t="s">
         <v>75</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" ht="24.0" customHeight="true">
+    <row r="41" ht="24" customHeight="1" spans="3:7">
       <c r="C41" t="s">
         <v>77</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" ht="24.0" customHeight="true">
+    <row r="42" ht="24" customHeight="1" spans="3:7">
       <c r="C42" t="s">
         <v>79</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" ht="24.0" customHeight="true">
+    <row r="43" ht="24" customHeight="1" spans="3:7">
       <c r="C43" t="s">
         <v>81</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" ht="24.0" customHeight="true">
+    <row r="44" ht="24" customHeight="1" spans="3:7">
       <c r="C44" t="s">
         <v>83</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" ht="24.0" customHeight="true">
+    <row r="45" ht="24" customHeight="1" spans="3:7">
       <c r="C45" t="s">
         <v>85</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" ht="24.0" customHeight="true">
+    <row r="46" ht="24" customHeight="1" spans="3:7">
       <c r="C46" t="s">
         <v>87</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" ht="24.0" customHeight="true">
+    <row r="47" ht="24" customHeight="1" spans="3:7">
       <c r="C47" t="s">
         <v>89</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" ht="24.0" customHeight="true">
+    <row r="48" ht="24" customHeight="1" spans="3:7">
       <c r="C48" t="s">
         <v>91</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" ht="24.0" customHeight="true">
+    <row r="49" ht="24" customHeight="1" spans="3:7">
       <c r="C49" t="s">
         <v>93</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" ht="24.0" customHeight="true">
+    <row r="50" ht="24" customHeight="1" spans="3:7">
       <c r="C50" t="s">
         <v>95</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" ht="24.0" customHeight="true">
+    <row r="51" ht="24" customHeight="1" spans="3:7">
       <c r="C51" t="s">
         <v>97</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" ht="24.0" customHeight="true">
+    <row r="52" ht="24" customHeight="1" spans="3:7">
       <c r="C52" t="s">
         <v>99</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" ht="24.0" customHeight="true">
+    <row r="53" ht="24" customHeight="1" spans="3:7">
       <c r="C53" t="s">
         <v>101</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" ht="24.0" customHeight="true">
+    <row r="54" ht="24" customHeight="1" spans="3:7">
       <c r="C54" t="s">
         <v>103</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" ht="24.0" customHeight="true">
+    <row r="55" ht="24" customHeight="1" spans="3:7">
       <c r="C55" t="s">
         <v>105</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" ht="24.0" customHeight="true">
+    <row r="56" ht="24" customHeight="1" spans="3:7">
       <c r="C56" t="s">
         <v>107</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" ht="24.0" customHeight="true">
+    <row r="57" ht="24" customHeight="1" spans="3:7">
       <c r="C57" t="s">
         <v>109</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" ht="24.0" customHeight="true">
+    <row r="58" ht="24" customHeight="1" spans="3:7">
       <c r="C58" t="s">
         <v>111</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" ht="24.0" customHeight="true">
+    <row r="59" ht="24" customHeight="1" spans="3:7">
       <c r="C59" t="s">
         <v>113</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" ht="24.0" customHeight="true">
+    <row r="60" ht="24" customHeight="1" spans="3:7">
       <c r="C60" t="s">
         <v>115</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" ht="24.0" customHeight="true">
+    <row r="61" ht="24" customHeight="1" spans="3:7">
       <c r="C61" t="s">
         <v>117</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" ht="24.0" customHeight="true">
+    <row r="62" ht="24" customHeight="1" spans="3:7">
       <c r="C62" t="s">
         <v>119</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" ht="24.0" customHeight="true">
+    <row r="63" ht="24" customHeight="1" spans="3:7">
       <c r="C63" t="s">
         <v>121</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" ht="24.0" customHeight="true">
+    <row r="64" ht="24" customHeight="1" spans="3:7">
       <c r="C64" t="s">
         <v>123</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" ht="24.0" customHeight="true">
+    <row r="65" ht="24" customHeight="1" spans="3:7">
       <c r="C65" t="s">
         <v>14</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" ht="24.0" customHeight="true">
+    <row r="66" ht="24" customHeight="1" spans="3:7">
       <c r="C66" t="s">
         <v>126</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" ht="24.0" customHeight="true">
+    <row r="67" ht="24" customHeight="1" spans="3:7">
       <c r="C67" t="s">
         <v>128</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" ht="24.0" customHeight="true">
+    <row r="68" ht="24" customHeight="1" spans="3:7">
       <c r="C68" t="s">
         <v>130</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" ht="24.0" customHeight="true">
+    <row r="69" ht="24" customHeight="1" spans="3:7">
       <c r="C69" t="s">
         <v>132</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" ht="24.0" customHeight="true">
+    <row r="70" ht="24" customHeight="1" spans="3:7">
       <c r="C70" t="s">
         <v>134</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" ht="24.0" customHeight="true">
+    <row r="71" ht="24" customHeight="1" spans="3:7">
       <c r="C71" t="s">
         <v>136</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" ht="24.0" customHeight="true">
+    <row r="72" ht="24" customHeight="1" spans="3:7">
       <c r="C72" t="s">
         <v>138</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" ht="24.0" customHeight="true">
+    <row r="73" ht="24" customHeight="1" spans="3:7">
       <c r="C73" t="s">
         <v>140</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" ht="24.0" customHeight="true">
+    <row r="74" ht="24" customHeight="1" spans="3:7">
       <c r="C74" t="s">
         <v>142</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" ht="24.0" customHeight="true">
+    <row r="75" ht="24" customHeight="1" spans="3:7">
       <c r="C75" t="s">
         <v>144</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" ht="24.0" customHeight="true">
+    <row r="76" ht="24" customHeight="1" spans="3:7">
       <c r="C76" t="s">
         <v>146</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" ht="24.0" customHeight="true">
+    <row r="77" ht="24" customHeight="1" spans="3:7">
       <c r="C77" t="s">
         <v>148</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" ht="24.0" customHeight="true">
+    <row r="78" ht="24" customHeight="1" spans="3:7">
       <c r="C78" t="s">
         <v>150</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" ht="24.0" customHeight="true">
+    <row r="79" ht="24" customHeight="1" spans="3:7">
       <c r="C79" t="s">
         <v>152</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" ht="24.0" customHeight="true">
+    <row r="80" ht="24" customHeight="1" spans="3:7">
       <c r="C80" t="s">
         <v>154</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" ht="24.0" customHeight="true">
+    <row r="81" ht="24" customHeight="1" spans="3:7">
       <c r="C81" t="s">
         <v>156</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" ht="24.0" customHeight="true">
+    <row r="82" ht="24" customHeight="1" spans="3:7">
       <c r="C82" t="s">
         <v>158</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="83" ht="24.0" customHeight="true">
+    <row r="83" ht="24" customHeight="1" spans="3:7">
       <c r="C83" t="s">
         <v>160</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" ht="24.0" customHeight="true">
+    <row r="84" ht="24" customHeight="1" spans="3:7">
       <c r="C84" t="s">
         <v>162</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="85" ht="24.0" customHeight="true">
+    <row r="85" ht="24" customHeight="1" spans="3:7">
       <c r="C85" t="s">
         <v>164</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="86" ht="24.0" customHeight="true">
+    <row r="86" ht="24" customHeight="1" spans="3:7">
       <c r="C86" t="s">
         <v>166</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" ht="24.0" customHeight="true">
+    <row r="87" ht="24" customHeight="1" spans="3:7">
       <c r="C87" t="s">
         <v>168</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" ht="24.0" customHeight="true">
+    <row r="88" ht="24" customHeight="1" spans="3:7">
       <c r="C88" t="s">
         <v>170</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="89" ht="24.0" customHeight="true">
+    <row r="89" ht="24" customHeight="1" spans="3:7">
       <c r="C89" t="s">
         <v>172</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="90" ht="24.0" customHeight="true">
+    <row r="90" ht="24" customHeight="1" spans="3:7">
       <c r="C90" t="s">
         <v>174</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" ht="24.0" customHeight="true">
+    <row r="91" ht="24" customHeight="1" spans="3:7">
       <c r="C91" t="s">
         <v>176</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" ht="24.0" customHeight="true">
+    <row r="92" ht="24" customHeight="1" spans="3:7">
       <c r="C92" t="s">
         <v>178</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" ht="24.0" customHeight="true">
+    <row r="93" ht="24" customHeight="1" spans="3:7">
       <c r="C93" t="s">
         <v>180</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" ht="24.0" customHeight="true">
+    <row r="94" ht="24" customHeight="1" spans="3:7">
       <c r="C94" t="s">
         <v>182</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="95" ht="24.0" customHeight="true">
+    <row r="95" ht="24" customHeight="1" spans="3:7">
       <c r="C95" t="s">
         <v>184</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" ht="24.0" customHeight="true">
+    <row r="96" ht="24" customHeight="1" spans="3:7">
       <c r="C96" t="s">
         <v>186</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" ht="24.0" customHeight="true">
+    <row r="97" ht="24" customHeight="1" spans="3:7">
       <c r="C97" t="s">
         <v>188</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="98" ht="24.0" customHeight="true">
+    <row r="98" ht="24" customHeight="1" spans="3:7">
       <c r="C98" t="s">
         <v>190</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="99" ht="24.0" customHeight="true">
+    <row r="99" ht="24" customHeight="1" spans="3:7">
       <c r="C99" t="s">
         <v>192</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="100" ht="24.0" customHeight="true">
+    <row r="100" ht="24" customHeight="1" spans="3:7">
       <c r="C100" t="s">
         <v>194</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="101" ht="24.0" customHeight="true">
+    <row r="101" ht="24" customHeight="1" spans="3:7">
       <c r="C101" t="s">
         <v>196</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="102" ht="24.0" customHeight="true">
+    <row r="102" ht="24" customHeight="1" spans="3:7">
       <c r="C102" t="s">
         <v>198</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="103" ht="24.0" customHeight="true">
+    <row r="103" ht="24" customHeight="1" spans="3:7">
       <c r="C103" t="s">
         <v>200</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="104" ht="24.0" customHeight="true">
+    <row r="104" ht="24" customHeight="1" spans="3:7">
       <c r="C104" t="s">
         <v>202</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="105" ht="24.0" customHeight="true">
+    <row r="105" ht="24" customHeight="1" spans="3:7">
       <c r="C105" t="s">
         <v>16</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="106" ht="24.0" customHeight="true">
+    <row r="106" ht="24" customHeight="1" spans="3:7">
       <c r="C106" t="s">
         <v>205</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="107" ht="24.0" customHeight="true">
+    <row r="107" ht="24" customHeight="1" spans="3:7">
       <c r="C107" t="s">
         <v>207</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="108" ht="24.0" customHeight="true">
+    <row r="108" ht="24" customHeight="1" spans="3:7">
       <c r="C108" t="s">
         <v>209</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="109" ht="24.0" customHeight="true">
+    <row r="109" ht="24" customHeight="1" spans="3:7">
       <c r="C109" t="s">
         <v>211</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="110" ht="24.0" customHeight="true">
+    <row r="110" ht="24" customHeight="1" spans="3:7">
       <c r="C110" t="s">
         <v>213</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="111" ht="24.0" customHeight="true">
+    <row r="111" ht="24" customHeight="1" spans="3:7">
       <c r="C111" t="s">
         <v>215</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" ht="24.0" customHeight="true">
+    <row r="112" ht="24" customHeight="1" spans="3:7">
       <c r="C112" t="s">
         <v>217</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="113" ht="24.0" customHeight="true">
+    <row r="113" ht="24" customHeight="1" spans="3:7">
       <c r="C113" t="s">
         <v>219</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="114" ht="24.0" customHeight="true">
+    <row r="114" ht="24" customHeight="1" spans="3:7">
       <c r="C114" t="s">
         <v>221</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="115" ht="24.0" customHeight="true">
+    <row r="115" ht="24" customHeight="1" spans="3:7">
       <c r="C115" t="s">
         <v>223</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="116" ht="24.0" customHeight="true">
+    <row r="116" ht="24" customHeight="1" spans="3:7">
       <c r="C116" t="s">
         <v>225</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="117" ht="24.0" customHeight="true">
+    <row r="117" ht="24" customHeight="1" spans="3:7">
       <c r="C117" t="s">
         <v>227</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="118" ht="24.0" customHeight="true">
+    <row r="118" ht="24" customHeight="1" spans="3:7">
       <c r="C118" t="s">
         <v>229</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" ht="24.0" customHeight="true">
+    <row r="119" ht="24" customHeight="1" spans="3:7">
       <c r="C119" t="s">
         <v>231</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="120" ht="24.0" customHeight="true">
+    <row r="120" ht="24" customHeight="1" spans="3:7">
       <c r="C120" t="s">
         <v>233</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="121" ht="24.0" customHeight="true">
+    <row r="121" ht="24" customHeight="1" spans="3:7">
       <c r="C121" t="s">
         <v>235</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="122" ht="24.0" customHeight="true">
+    <row r="122" ht="24" customHeight="1" spans="3:7">
       <c r="C122" t="s">
         <v>237</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="123" ht="24.0" customHeight="true">
+    <row r="123" ht="24" customHeight="1" spans="3:7">
       <c r="C123" t="s">
         <v>239</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="124" ht="24.0" customHeight="true">
+    <row r="124" ht="24" customHeight="1" spans="3:7">
       <c r="C124" t="s">
         <v>241</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="125" ht="24.0" customHeight="true">
+    <row r="125" ht="24" customHeight="1" spans="3:7">
       <c r="C125" t="s">
         <v>243</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="126" ht="24.0" customHeight="true">
+    <row r="126" ht="24" customHeight="1" spans="3:7">
       <c r="C126" t="s">
         <v>245</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="127" ht="24.0" customHeight="true">
+    <row r="127" ht="24" customHeight="1" spans="3:7">
       <c r="C127" t="s">
         <v>247</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="128" ht="24.0" customHeight="true">
+    <row r="128" ht="24" customHeight="1" spans="3:7">
       <c r="C128" t="s">
         <v>249</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="129" ht="24.0" customHeight="true">
+    <row r="129" ht="24" customHeight="1" spans="3:7">
       <c r="C129" t="s">
         <v>251</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="130" ht="24.0" customHeight="true">
+    <row r="130" ht="24" customHeight="1" spans="3:7">
       <c r="C130" t="s">
         <v>253</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="131" ht="24.0" customHeight="true">
+    <row r="131" ht="24" customHeight="1" spans="3:7">
       <c r="C131" t="s">
         <v>255</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" ht="24.0" customHeight="true">
+    <row r="132" ht="24" customHeight="1" spans="3:7">
       <c r="C132" t="s">
         <v>257</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="133" ht="24.0" customHeight="true">
+    <row r="133" ht="24" customHeight="1" spans="3:7">
       <c r="C133" t="s">
         <v>259</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="134" ht="24.0" customHeight="true">
+    <row r="134" ht="24" customHeight="1" spans="3:7">
       <c r="C134" t="s">
         <v>261</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="135" ht="24.0" customHeight="true">
+    <row r="135" ht="24" customHeight="1" spans="3:7">
       <c r="C135" t="s">
         <v>263</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="136" ht="24.0" customHeight="true">
+    <row r="136" ht="24" customHeight="1" spans="3:7">
       <c r="C136" t="s">
         <v>265</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="137" ht="24.0" customHeight="true">
+    <row r="137" ht="24" customHeight="1" spans="3:7">
       <c r="C137" t="s">
         <v>267</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="138" ht="24.0" customHeight="true">
+    <row r="138" ht="24" customHeight="1" spans="3:7">
       <c r="C138" t="s">
         <v>269</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="139" ht="24.0" customHeight="true">
+    <row r="139" ht="24" customHeight="1" spans="3:7">
       <c r="C139" t="s">
         <v>271</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="140" ht="24.0" customHeight="true">
+    <row r="140" ht="24" customHeight="1" spans="3:7">
       <c r="C140" t="s">
         <v>273</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="141" ht="24.0" customHeight="true">
+    <row r="141" ht="24" customHeight="1" spans="3:7">
       <c r="C141" t="s">
         <v>275</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="142" ht="24.0" customHeight="true">
+    <row r="142" ht="24" customHeight="1" spans="3:7">
       <c r="C142" t="s">
         <v>277</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="143" ht="24.0" customHeight="true">
+    <row r="143" ht="24" customHeight="1" spans="3:7">
       <c r="C143" t="s">
         <v>279</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="144" ht="24.0" customHeight="true">
+    <row r="144" ht="24" customHeight="1" spans="3:7">
       <c r="C144" t="s">
         <v>281</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="145" ht="24.0" customHeight="true">
+    <row r="145" ht="24" customHeight="1" spans="3:7">
       <c r="C145" t="s">
         <v>283</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="146" ht="24.0" customHeight="true">
+    <row r="146" ht="24" customHeight="1" spans="3:7">
       <c r="C146" t="s">
         <v>285</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="147" ht="24.0" customHeight="true">
+    <row r="147" ht="24" customHeight="1" spans="3:7">
       <c r="C147" t="s">
         <v>287</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="148" ht="24.0" customHeight="true">
+    <row r="148" ht="24" customHeight="1" spans="3:7">
       <c r="C148" t="s">
         <v>289</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="149" ht="24.0" customHeight="true">
+    <row r="149" ht="24" customHeight="1" spans="3:7">
       <c r="C149" t="s">
         <v>291</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="150" ht="24.0" customHeight="true">
+    <row r="150" ht="24" customHeight="1" spans="3:7">
       <c r="C150" t="s">
         <v>293</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="151" ht="24.0" customHeight="true">
+    <row r="151" ht="24" customHeight="1" spans="3:7">
       <c r="C151" t="s">
         <v>295</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="152" ht="24.0" customHeight="true">
+    <row r="152" ht="24" customHeight="1" spans="3:7">
       <c r="C152" t="s">
         <v>297</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="153" ht="24.0" customHeight="true">
+    <row r="153" ht="24" customHeight="1" spans="3:7">
       <c r="C153" t="s">
         <v>299</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="154" ht="24.0" customHeight="true">
+    <row r="154" ht="24" customHeight="1" spans="3:7">
       <c r="C154" t="s">
         <v>301</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="155" ht="24.0" customHeight="true">
+    <row r="155" ht="24" customHeight="1" spans="3:7">
       <c r="C155" t="s">
         <v>18</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="156" ht="24.0" customHeight="true">
+    <row r="156" ht="24" customHeight="1" spans="3:7">
       <c r="C156" t="s">
         <v>304</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="157" ht="24.0" customHeight="true">
+    <row r="157" ht="24" customHeight="1" spans="3:7">
       <c r="C157" t="s">
         <v>306</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="158" ht="24.0" customHeight="true">
+    <row r="158" ht="24" customHeight="1" spans="3:7">
       <c r="C158" t="s">
         <v>308</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="159" ht="24.0" customHeight="true">
+    <row r="159" ht="24" customHeight="1" spans="3:7">
       <c r="C159" t="s">
         <v>310</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="160" ht="24.0" customHeight="true">
+    <row r="160" ht="24" customHeight="1" spans="3:7">
       <c r="C160" t="s">
         <v>312</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="161" ht="24.0" customHeight="true">
+    <row r="161" ht="24" customHeight="1" spans="3:7">
       <c r="C161" t="s">
         <v>314</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="162" ht="24.0" customHeight="true">
+    <row r="162" ht="24" customHeight="1" spans="3:7">
       <c r="C162" t="s">
         <v>316</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="163" ht="24.0" customHeight="true">
+    <row r="163" ht="24" customHeight="1" spans="3:7">
       <c r="C163" t="s">
         <v>318</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="164" ht="24.0" customHeight="true">
+    <row r="164" ht="24" customHeight="1" spans="3:7">
       <c r="C164" t="s">
         <v>320</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="165" ht="24.0" customHeight="true">
+    <row r="165" ht="24" customHeight="1" spans="3:7">
       <c r="C165" t="s">
         <v>322</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="166" ht="24.0" customHeight="true">
+    <row r="166" ht="24" customHeight="1" spans="3:7">
       <c r="C166" t="s">
         <v>324</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="167" ht="24.0" customHeight="true">
+    <row r="167" ht="24" customHeight="1" spans="3:7">
       <c r="C167" t="s">
         <v>326</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="168" ht="24.0" customHeight="true">
+    <row r="168" ht="24" customHeight="1" spans="3:7">
       <c r="C168" t="s">
         <v>328</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="169" ht="24.0" customHeight="true">
+    <row r="169" ht="24" customHeight="1" spans="3:7">
       <c r="C169" t="s">
         <v>330</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="170" ht="24.0" customHeight="true">
+    <row r="170" ht="24" customHeight="1" spans="3:7">
       <c r="C170" t="s">
         <v>332</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="171" ht="24.0" customHeight="true">
+    <row r="171" ht="24" customHeight="1" spans="3:7">
       <c r="C171" t="s">
         <v>334</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="172" ht="24.0" customHeight="true">
+    <row r="172" ht="24" customHeight="1" spans="3:7">
       <c r="C172" t="s">
         <v>336</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="173" ht="24.0" customHeight="true">
+    <row r="173" ht="24" customHeight="1" spans="3:7">
       <c r="C173" t="s">
         <v>338</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="174" ht="24.0" customHeight="true">
+    <row r="174" ht="24" customHeight="1" spans="3:7">
       <c r="C174" t="s">
         <v>340</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="175" ht="24.0" customHeight="true">
+    <row r="175" ht="24" customHeight="1" spans="3:7">
       <c r="C175" t="s">
         <v>342</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="176" ht="24.0" customHeight="true">
+    <row r="176" ht="24" customHeight="1" spans="3:7">
       <c r="C176" t="s">
         <v>344</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="177" ht="24.0" customHeight="true">
+    <row r="177" ht="24" customHeight="1" spans="3:7">
       <c r="C177" t="s">
         <v>346</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="178" ht="24.0" customHeight="true">
+    <row r="178" ht="24" customHeight="1" spans="3:7">
       <c r="C178" t="s">
         <v>348</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="179" ht="24.0" customHeight="true">
+    <row r="179" ht="24" customHeight="1" spans="3:7">
       <c r="C179" t="s">
         <v>350</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="180" ht="24.0" customHeight="true">
+    <row r="180" ht="24" customHeight="1" spans="3:7">
       <c r="C180" t="s">
         <v>352</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="181" ht="24.0" customHeight="true">
+    <row r="181" ht="24" customHeight="1" spans="3:7">
       <c r="C181" t="s">
         <v>354</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="182" ht="24.0" customHeight="true">
+    <row r="182" ht="24" customHeight="1" spans="3:7">
       <c r="C182" t="s">
         <v>356</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="183" ht="24.0" customHeight="true">
+    <row r="183" ht="24" customHeight="1" spans="3:7">
       <c r="C183" t="s">
         <v>358</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="184" ht="24.0" customHeight="true">
+    <row r="184" ht="24" customHeight="1" spans="3:7">
       <c r="C184" t="s">
         <v>360</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="185" ht="24.0" customHeight="true">
+    <row r="185" ht="24" customHeight="1" spans="3:7">
       <c r="C185" t="s">
         <v>362</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="186" ht="24.0" customHeight="true">
+    <row r="186" ht="24" customHeight="1" spans="3:7">
       <c r="C186" t="s">
         <v>364</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="187" ht="24.0" customHeight="true">
+    <row r="187" ht="24" customHeight="1" spans="3:7">
       <c r="C187" t="s">
         <v>366</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="188" ht="24.0" customHeight="true">
+    <row r="188" ht="24" customHeight="1" spans="3:7">
       <c r="C188" t="s">
         <v>368</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="189" ht="24.0" customHeight="true">
+    <row r="189" ht="24" customHeight="1" spans="3:7">
       <c r="C189" t="s">
         <v>370</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="190" ht="24.0" customHeight="true">
+    <row r="190" ht="24" customHeight="1" spans="3:7">
       <c r="C190" t="s">
         <v>372</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="191" ht="24.0" customHeight="true">
+    <row r="191" ht="24" customHeight="1" spans="3:7">
       <c r="C191" t="s">
         <v>374</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="192" ht="24.0" customHeight="true">
+    <row r="192" ht="24" customHeight="1" spans="3:7">
       <c r="C192" t="s">
         <v>376</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="193" ht="24.0" customHeight="true">
+    <row r="193" ht="24" customHeight="1" spans="3:7">
       <c r="C193" t="s">
         <v>378</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="194" ht="24.0" customHeight="true">
+    <row r="194" ht="24" customHeight="1" spans="3:7">
       <c r="C194" t="s">
         <v>380</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="195" ht="24.0" customHeight="true">
+    <row r="195" ht="24" customHeight="1" spans="3:7">
       <c r="C195" t="s">
         <v>382</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="196" ht="24.0" customHeight="true">
+    <row r="196" ht="24" customHeight="1" spans="3:7">
       <c r="C196" t="s">
         <v>384</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="197" ht="24.0" customHeight="true">
+    <row r="197" ht="24" customHeight="1" spans="3:7">
       <c r="C197" t="s">
         <v>386</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="198" ht="24.0" customHeight="true">
+    <row r="198" ht="24" customHeight="1" spans="3:7">
       <c r="C198" t="s">
         <v>388</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="199" ht="24.0" customHeight="true">
+    <row r="199" ht="24" customHeight="1" spans="3:7">
       <c r="C199" t="s">
         <v>390</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="200" ht="24.0" customHeight="true">
+    <row r="200" ht="24" customHeight="1" spans="3:7">
       <c r="C200" t="s">
         <v>392</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="201" ht="24.0" customHeight="true">
+    <row r="201" ht="24" customHeight="1" spans="3:7">
       <c r="C201" t="s">
         <v>394</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="202" ht="24.0" customHeight="true">
+    <row r="202" ht="24" customHeight="1" spans="3:7">
       <c r="C202" t="s">
         <v>396</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="203" ht="24.0" customHeight="true">
+    <row r="203" ht="24" customHeight="1" spans="3:7">
       <c r="C203" t="s">
         <v>398</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="204" ht="24.0" customHeight="true">
+    <row r="204" ht="24" customHeight="1" spans="3:7">
       <c r="C204" t="s">
         <v>400</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="205" ht="24.0" customHeight="true">
+    <row r="205" ht="24" customHeight="1" spans="3:7">
       <c r="C205" t="s">
         <v>402</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="206" ht="24.0" customHeight="true">
+    <row r="206" ht="24" customHeight="1" spans="3:7">
       <c r="C206" t="s">
         <v>404</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="207" ht="24.0" customHeight="true">
+    <row r="207" ht="24" customHeight="1" spans="3:7">
       <c r="C207" t="s">
         <v>406</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="208" ht="24.0" customHeight="true">
+    <row r="208" ht="24" customHeight="1" spans="3:7">
       <c r="C208" t="s">
         <v>408</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="209" ht="24.0" customHeight="true">
+    <row r="209" ht="24" customHeight="1" spans="3:7">
       <c r="C209" t="s">
         <v>410</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="210" ht="24.0" customHeight="true">
+    <row r="210" ht="24" customHeight="1" spans="3:7">
       <c r="C210" t="s">
         <v>412</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="211" ht="24.0" customHeight="true">
+    <row r="211" ht="24" customHeight="1" spans="3:7">
       <c r="C211" t="s">
         <v>414</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="212" ht="24.0" customHeight="true">
+    <row r="212" ht="24" customHeight="1" spans="3:7">
       <c r="C212" t="s">
         <v>416</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="213" ht="24.0" customHeight="true">
+    <row r="213" ht="24" customHeight="1" spans="3:7">
       <c r="C213" t="s">
         <v>418</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="214" ht="24.0" customHeight="true">
+    <row r="214" ht="24" customHeight="1" spans="3:7">
       <c r="C214" t="s">
         <v>420</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="215" ht="24.0" customHeight="true">
+    <row r="215" ht="24" customHeight="1" spans="3:7">
       <c r="C215" t="s">
         <v>20</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="216" ht="24.0" customHeight="true">
+    <row r="216" ht="24" customHeight="1" spans="3:7">
       <c r="C216" t="s">
         <v>423</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="217" ht="24.0" customHeight="true">
+    <row r="217" ht="24" customHeight="1" spans="3:7">
       <c r="C217" t="s">
         <v>425</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="218" ht="24.0" customHeight="true">
+    <row r="218" ht="24" customHeight="1" spans="3:7">
       <c r="C218" t="s">
         <v>427</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="219" ht="24.0" customHeight="true">
+    <row r="219" ht="24" customHeight="1" spans="3:7">
       <c r="C219" t="s">
         <v>429</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="220" ht="24.0" customHeight="true">
+    <row r="220" ht="24" customHeight="1" spans="3:7">
       <c r="C220" t="s">
         <v>431</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="221" ht="24.0" customHeight="true">
+    <row r="221" ht="24" customHeight="1" spans="3:7">
       <c r="C221" t="s">
         <v>433</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="222" ht="24.0" customHeight="true">
+    <row r="222" ht="24" customHeight="1" spans="3:7">
       <c r="C222" t="s">
         <v>435</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="223" ht="24.0" customHeight="true">
+    <row r="223" ht="24" customHeight="1" spans="3:7">
       <c r="C223" t="s">
         <v>437</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="224" ht="24.0" customHeight="true">
+    <row r="224" ht="24" customHeight="1" spans="3:7">
       <c r="C224" t="s">
         <v>439</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="225" ht="24.0" customHeight="true">
+    <row r="225" ht="24" customHeight="1" spans="3:7">
       <c r="C225" t="s">
         <v>441</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="226" ht="24.0" customHeight="true">
+    <row r="226" ht="24" customHeight="1" spans="3:7">
       <c r="C226" t="s">
         <v>443</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="227" ht="24.0" customHeight="true">
+    <row r="227" ht="24" customHeight="1" spans="3:7">
       <c r="C227" t="s">
         <v>445</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="228" ht="24.0" customHeight="true">
+    <row r="228" ht="24" customHeight="1" spans="3:7">
       <c r="C228" t="s">
         <v>447</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="229" ht="24.0" customHeight="true">
+    <row r="229" ht="24" customHeight="1" spans="3:7">
       <c r="C229" t="s">
         <v>449</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="230" ht="24.0" customHeight="true">
+    <row r="230" ht="24" customHeight="1" spans="3:7">
       <c r="C230" t="s">
         <v>451</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="231" ht="24.0" customHeight="true">
+    <row r="231" ht="24" customHeight="1" spans="3:7">
       <c r="C231" t="s">
         <v>453</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="232" ht="24.0" customHeight="true">
+    <row r="232" ht="24" customHeight="1" spans="3:7">
       <c r="C232" t="s">
         <v>455</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="233" ht="24.0" customHeight="true">
+    <row r="233" ht="24" customHeight="1" spans="3:7">
       <c r="C233" t="s">
         <v>457</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="234" ht="24.0" customHeight="true">
+    <row r="234" ht="24" customHeight="1" spans="3:7">
       <c r="C234" t="s">
         <v>459</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="235" ht="24.0" customHeight="true">
+    <row r="235" ht="24" customHeight="1" spans="3:7">
       <c r="C235" t="s">
         <v>461</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="236" ht="24.0" customHeight="true">
+    <row r="236" ht="24" customHeight="1" spans="3:7">
       <c r="C236" t="s">
         <v>463</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="237" ht="24.0" customHeight="true">
+    <row r="237" ht="24" customHeight="1" spans="3:7">
       <c r="C237" t="s">
         <v>465</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="238" ht="24.0" customHeight="true">
+    <row r="238" ht="24" customHeight="1" spans="3:7">
       <c r="C238" t="s">
         <v>467</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="239" ht="24.0" customHeight="true">
+    <row r="239" ht="24" customHeight="1" spans="3:7">
       <c r="C239" t="s">
         <v>469</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="240" ht="24.0" customHeight="true">
+    <row r="240" ht="24" customHeight="1" spans="3:7">
       <c r="C240" t="s">
         <v>471</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="241" ht="24.0" customHeight="true">
+    <row r="241" ht="24" customHeight="1" spans="3:7">
       <c r="C241" t="s">
         <v>473</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="242" ht="24.0" customHeight="true">
+    <row r="242" ht="24" customHeight="1" spans="3:7">
       <c r="C242" t="s">
         <v>475</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="243" ht="24.0" customHeight="true">
+    <row r="243" ht="24" customHeight="1" spans="3:7">
       <c r="C243" t="s">
         <v>477</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="244" ht="24.0" customHeight="true">
+    <row r="244" ht="24" customHeight="1" spans="3:7">
       <c r="C244" t="s">
         <v>479</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="245" ht="24.0" customHeight="true">
+    <row r="245" ht="24" customHeight="1" spans="3:7">
       <c r="C245" t="s">
         <v>481</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="246" ht="24.0" customHeight="true">
+    <row r="246" ht="24" customHeight="1" spans="3:7">
       <c r="C246" t="s">
         <v>483</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="247" ht="24.0" customHeight="true">
+    <row r="247" ht="24" customHeight="1" spans="3:7">
       <c r="C247" t="s">
         <v>485</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="248" ht="24.0" customHeight="true">
+    <row r="248" ht="24" customHeight="1" spans="3:7">
       <c r="C248" t="s">
         <v>487</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="249" ht="24.0" customHeight="true">
+    <row r="249" ht="24" customHeight="1" spans="3:7">
       <c r="C249" t="s">
         <v>489</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="250" ht="24.0" customHeight="true">
+    <row r="250" ht="24" customHeight="1" spans="3:7">
       <c r="C250" t="s">
         <v>491</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="251" ht="24.0" customHeight="true">
+    <row r="251" ht="24" customHeight="1" spans="3:7">
       <c r="C251" t="s">
         <v>493</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="252" ht="24.0" customHeight="true">
+    <row r="252" ht="24" customHeight="1" spans="3:7">
       <c r="C252" t="s">
         <v>495</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="253" ht="24.0" customHeight="true">
+    <row r="253" ht="24" customHeight="1" spans="3:7">
       <c r="C253" t="s">
         <v>497</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="254" ht="24.0" customHeight="true">
+    <row r="254" ht="24" customHeight="1" spans="3:7">
       <c r="C254" t="s">
         <v>499</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="255" ht="24.0" customHeight="true">
+    <row r="255" ht="24" customHeight="1" spans="3:7">
       <c r="C255" t="s">
         <v>501</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="256" ht="24.0" customHeight="true">
+    <row r="256" ht="24" customHeight="1" spans="3:7">
       <c r="C256" t="s">
         <v>503</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="257" ht="24.0" customHeight="true">
+    <row r="257" ht="24" customHeight="1" spans="3:7">
       <c r="C257" t="s">
         <v>505</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="258" ht="24.0" customHeight="true">
+    <row r="258" ht="24" customHeight="1" spans="3:7">
       <c r="C258" t="s">
         <v>507</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="259" ht="24.0" customHeight="true">
+    <row r="259" ht="24" customHeight="1" spans="3:7">
       <c r="C259" t="s">
         <v>509</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="260" ht="24.0" customHeight="true">
+    <row r="260" ht="24" customHeight="1" spans="3:7">
       <c r="C260" t="s">
         <v>511</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="261" ht="24.0" customHeight="true">
+    <row r="261" ht="24" customHeight="1" spans="3:7">
       <c r="C261" t="s">
         <v>513</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="262" ht="24.0" customHeight="true">
+    <row r="262" ht="24" customHeight="1" spans="3:7">
       <c r="C262" t="s">
         <v>515</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="263" ht="24.0" customHeight="true">
+    <row r="263" ht="24" customHeight="1" spans="3:7">
       <c r="C263" t="s">
         <v>517</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="264" ht="24.0" customHeight="true">
+    <row r="264" ht="24" customHeight="1" spans="3:7">
       <c r="C264" t="s">
         <v>519</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="265" ht="24.0" customHeight="true">
+    <row r="265" ht="24" customHeight="1" spans="3:7">
       <c r="C265" t="s">
         <v>521</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="266" ht="24.0" customHeight="true">
+    <row r="266" ht="24" customHeight="1" spans="3:7">
       <c r="C266" t="s">
         <v>523</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="267" ht="24.0" customHeight="true">
+    <row r="267" ht="24" customHeight="1" spans="3:7">
       <c r="C267" t="s">
         <v>525</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="268" ht="24.0" customHeight="true">
+    <row r="268" ht="24" customHeight="1" spans="3:7">
       <c r="C268" t="s">
         <v>527</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="269" ht="24.0" customHeight="true">
+    <row r="269" ht="24" customHeight="1" spans="3:7">
       <c r="C269" t="s">
         <v>529</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="270" ht="24.0" customHeight="true">
+    <row r="270" ht="24" customHeight="1" spans="3:7">
       <c r="C270" t="s">
         <v>531</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="271" ht="24.0" customHeight="true">
+    <row r="271" ht="24" customHeight="1" spans="3:7">
       <c r="C271" t="s">
         <v>533</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="272" ht="24.0" customHeight="true">
+    <row r="272" ht="24" customHeight="1" spans="3:7">
       <c r="C272" t="s">
         <v>535</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="273" ht="24.0" customHeight="true">
+    <row r="273" ht="24" customHeight="1" spans="3:7">
       <c r="C273" t="s">
         <v>537</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="274" ht="24.0" customHeight="true">
+    <row r="274" ht="24" customHeight="1" spans="3:7">
       <c r="C274" t="s">
         <v>539</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="275" ht="24.0" customHeight="true">
+    <row r="275" ht="24" customHeight="1" spans="3:7">
       <c r="C275" t="s">
         <v>541</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="276" ht="24.0" customHeight="true">
+    <row r="276" ht="24" customHeight="1" spans="3:7">
       <c r="C276" t="s">
         <v>543</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="277" ht="24.0" customHeight="true">
+    <row r="277" ht="24" customHeight="1" spans="3:7">
       <c r="C277" t="s">
         <v>545</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="278" ht="24.0" customHeight="true">
+    <row r="278" ht="24" customHeight="1" spans="3:7">
       <c r="C278" t="s">
         <v>547</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="279" ht="24.0" customHeight="true">
+    <row r="279" ht="24" customHeight="1" spans="3:7">
       <c r="C279" t="s">
         <v>549</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="280" ht="24.0" customHeight="true">
+    <row r="280" ht="24" customHeight="1" spans="3:7">
       <c r="C280" t="s">
         <v>551</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="281" ht="24.0" customHeight="true">
+    <row r="281" ht="24" customHeight="1" spans="3:7">
       <c r="C281" t="s">
         <v>553</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="282" ht="24.0" customHeight="true">
+    <row r="282" ht="24" customHeight="1" spans="3:7">
       <c r="C282" t="s">
         <v>555</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="283" ht="24.0" customHeight="true">
+    <row r="283" ht="24" customHeight="1" spans="3:7">
       <c r="C283" t="s">
         <v>557</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="284" ht="24.0" customHeight="true">
+    <row r="284" ht="24" customHeight="1" spans="3:7">
       <c r="C284" t="s">
         <v>559</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="285" ht="24.0" customHeight="true">
+    <row r="285" ht="24" customHeight="1" spans="3:7">
       <c r="C285" t="s">
         <v>22</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="286" ht="24.0" customHeight="true">
+    <row r="286" ht="24" customHeight="1" spans="3:7">
       <c r="C286" t="s">
         <v>562</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="287" ht="24.0" customHeight="true">
+    <row r="287" ht="24" customHeight="1" spans="3:7">
       <c r="C287" t="s">
         <v>564</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="288" ht="24.0" customHeight="true">
+    <row r="288" ht="24" customHeight="1" spans="3:7">
       <c r="C288" t="s">
         <v>566</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="289" ht="24.0" customHeight="true">
+    <row r="289" ht="24" customHeight="1" spans="3:7">
       <c r="C289" t="s">
         <v>568</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="290" ht="24.0" customHeight="true">
+    <row r="290" ht="24" customHeight="1" spans="3:7">
       <c r="C290" t="s">
         <v>570</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="291" ht="24.0" customHeight="true">
+    <row r="291" ht="24" customHeight="1" spans="3:7">
       <c r="C291" t="s">
         <v>572</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="292" ht="24.0" customHeight="true">
+    <row r="292" ht="24" customHeight="1" spans="3:7">
       <c r="C292" t="s">
         <v>574</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="293" ht="24.0" customHeight="true">
+    <row r="293" ht="24" customHeight="1" spans="3:7">
       <c r="C293" t="s">
         <v>576</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="294" ht="24.0" customHeight="true">
+    <row r="294" ht="24" customHeight="1" spans="3:7">
       <c r="C294" t="s">
         <v>578</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="295" ht="24.0" customHeight="true">
+    <row r="295" ht="24" customHeight="1" spans="3:7">
       <c r="C295" t="s">
         <v>580</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="296" ht="24.0" customHeight="true">
+    <row r="296" ht="24" customHeight="1" spans="3:7">
       <c r="C296" t="s">
         <v>582</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="297" ht="24.0" customHeight="true">
+    <row r="297" ht="24" customHeight="1" spans="3:7">
       <c r="C297" t="s">
         <v>584</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="298" ht="24.0" customHeight="true">
+    <row r="298" ht="24" customHeight="1" spans="3:7">
       <c r="C298" t="s">
         <v>586</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="299" ht="24.0" customHeight="true">
+    <row r="299" ht="24" customHeight="1" spans="3:7">
       <c r="C299" t="s">
         <v>588</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="300" ht="24.0" customHeight="true">
+    <row r="300" ht="24" customHeight="1" spans="3:7">
       <c r="C300" t="s">
         <v>590</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="301" ht="24.0" customHeight="true">
+    <row r="301" ht="24" customHeight="1" spans="3:7">
       <c r="C301" t="s">
         <v>592</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="302" ht="24.0" customHeight="true">
+    <row r="302" ht="24" customHeight="1" spans="3:7">
       <c r="C302" t="s">
         <v>594</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="303" ht="24.0" customHeight="true">
+    <row r="303" ht="24" customHeight="1" spans="3:7">
       <c r="C303" t="s">
         <v>596</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="304" ht="24.0" customHeight="true">
+    <row r="304" ht="24" customHeight="1" spans="3:7">
       <c r="C304" t="s">
         <v>598</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="305" ht="24.0" customHeight="true">
+    <row r="305" ht="24" customHeight="1" spans="3:7">
       <c r="C305" t="s">
         <v>600</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="306" ht="24.0" customHeight="true">
+    <row r="306" ht="24" customHeight="1" spans="3:7">
       <c r="C306" t="s">
         <v>602</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="307" ht="24.0" customHeight="true">
+    <row r="307" ht="24" customHeight="1" spans="3:7">
       <c r="C307" t="s">
         <v>604</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="308" ht="24.0" customHeight="true">
+    <row r="308" ht="24" customHeight="1" spans="3:7">
       <c r="C308" t="s">
         <v>606</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="309" ht="24.0" customHeight="true">
+    <row r="309" ht="24" customHeight="1" spans="3:7">
       <c r="C309" t="s">
         <v>608</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="310" ht="24.0" customHeight="true">
+    <row r="310" ht="24" customHeight="1" spans="3:7">
       <c r="C310" t="s">
         <v>610</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="311" ht="24.0" customHeight="true">
+    <row r="311" ht="24" customHeight="1" spans="3:7">
       <c r="C311" t="s">
         <v>612</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="312" ht="24.0" customHeight="true">
+    <row r="312" ht="24" customHeight="1" spans="3:7">
       <c r="C312" t="s">
         <v>614</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="313" ht="24.0" customHeight="true">
+    <row r="313" ht="24" customHeight="1" spans="3:7">
       <c r="C313" t="s">
         <v>616</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="314" ht="24.0" customHeight="true">
+    <row r="314" ht="24" customHeight="1" spans="3:7">
       <c r="C314" t="s">
         <v>618</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="315" ht="24.0" customHeight="true">
+    <row r="315" ht="24" customHeight="1" spans="3:7">
       <c r="C315" t="s">
         <v>620</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="316" ht="24.0" customHeight="true">
+    <row r="316" ht="24" customHeight="1" spans="3:7">
       <c r="C316" t="s">
         <v>622</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="317" ht="24.0" customHeight="true">
+    <row r="317" ht="24" customHeight="1" spans="3:7">
       <c r="C317" t="s">
         <v>624</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="318" ht="24.0" customHeight="true">
+    <row r="318" ht="24" customHeight="1" spans="3:7">
       <c r="C318" t="s">
         <v>626</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="319" ht="24.0" customHeight="true">
+    <row r="319" ht="24" customHeight="1" spans="3:7">
       <c r="C319" t="s">
         <v>628</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="320" ht="24.0" customHeight="true">
+    <row r="320" ht="24" customHeight="1" spans="3:7">
       <c r="C320" t="s">
         <v>630</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="321" ht="24.0" customHeight="true">
+    <row r="321" ht="24" customHeight="1" spans="3:7">
       <c r="C321" t="s">
         <v>632</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="322" ht="24.0" customHeight="true">
+    <row r="322" ht="24" customHeight="1" spans="3:7">
       <c r="C322" t="s">
         <v>634</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="323" ht="24.0" customHeight="true">
+    <row r="323" ht="24" customHeight="1" spans="3:7">
       <c r="C323" t="s">
         <v>636</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="324" ht="24.0" customHeight="true">
+    <row r="324" ht="24" customHeight="1" spans="3:7">
       <c r="C324" t="s">
         <v>638</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="325" ht="24.0" customHeight="true">
+    <row r="325" ht="24" customHeight="1" spans="3:7">
       <c r="C325" t="s">
         <v>640</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="326" ht="24.0" customHeight="true">
+    <row r="326" ht="24" customHeight="1" spans="3:7">
       <c r="C326" t="s">
         <v>642</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="327" ht="24.0" customHeight="true">
+    <row r="327" ht="24" customHeight="1" spans="3:7">
       <c r="C327" t="s">
         <v>644</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="328" ht="24.0" customHeight="true">
+    <row r="328" ht="24" customHeight="1" spans="3:7">
       <c r="C328" t="s">
         <v>646</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="329" ht="24.0" customHeight="true">
+    <row r="329" ht="24" customHeight="1" spans="3:7">
       <c r="C329" t="s">
         <v>648</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="330" ht="24.0" customHeight="true">
+    <row r="330" ht="24" customHeight="1" spans="3:7">
       <c r="C330" t="s">
         <v>650</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="331" ht="24.0" customHeight="true">
+    <row r="331" ht="24" customHeight="1" spans="3:7">
       <c r="C331" t="s">
         <v>652</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="332" ht="24.0" customHeight="true">
+    <row r="332" ht="24" customHeight="1" spans="3:7">
       <c r="C332" t="s">
         <v>654</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="333" ht="24.0" customHeight="true">
+    <row r="333" ht="24" customHeight="1" spans="3:7">
       <c r="C333" t="s">
         <v>656</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="334" ht="24.0" customHeight="true">
+    <row r="334" ht="24" customHeight="1" spans="3:7">
       <c r="C334" t="s">
         <v>658</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="335" ht="24.0" customHeight="true">
+    <row r="335" ht="24" customHeight="1" spans="3:7">
       <c r="C335" t="s">
         <v>660</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="336" ht="24.0" customHeight="true">
+    <row r="336" ht="24" customHeight="1" spans="3:7">
       <c r="C336" t="s">
         <v>662</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="337" ht="24.0" customHeight="true">
+    <row r="337" ht="24" customHeight="1" spans="3:7">
       <c r="C337" t="s">
         <v>664</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="338" ht="24.0" customHeight="true">
+    <row r="338" ht="24" customHeight="1" spans="3:7">
       <c r="C338" t="s">
         <v>666</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="339" ht="24.0" customHeight="true">
+    <row r="339" ht="24" customHeight="1" spans="3:7">
       <c r="C339" t="s">
         <v>668</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="340" ht="24.0" customHeight="true">
+    <row r="340" ht="24" customHeight="1" spans="3:7">
       <c r="C340" t="s">
         <v>670</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="341" ht="24.0" customHeight="true">
+    <row r="341" ht="24" customHeight="1" spans="3:7">
       <c r="C341" t="s">
         <v>672</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="342" ht="24.0" customHeight="true">
+    <row r="342" ht="24" customHeight="1" spans="3:7">
       <c r="C342" t="s">
         <v>674</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="343" ht="24.0" customHeight="true">
+    <row r="343" ht="24" customHeight="1" spans="3:7">
       <c r="C343" t="s">
         <v>676</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="344" ht="24.0" customHeight="true">
+    <row r="344" ht="24" customHeight="1" spans="3:7">
       <c r="C344" t="s">
         <v>678</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="345" ht="24.0" customHeight="true">
+    <row r="345" ht="24" customHeight="1" spans="3:7">
       <c r="C345" t="s">
         <v>680</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="346" ht="24.0" customHeight="true">
+    <row r="346" ht="24" customHeight="1" spans="3:7">
       <c r="C346" t="s">
         <v>682</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="347" ht="24.0" customHeight="true">
+    <row r="347" ht="24" customHeight="1" spans="3:7">
       <c r="C347" t="s">
         <v>684</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="348" ht="24.0" customHeight="true">
+    <row r="348" ht="24" customHeight="1" spans="3:7">
       <c r="C348" t="s">
         <v>686</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="349" ht="24.0" customHeight="true">
+    <row r="349" ht="24" customHeight="1" spans="3:7">
       <c r="C349" t="s">
         <v>688</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="350" ht="24.0" customHeight="true">
+    <row r="350" ht="24" customHeight="1" spans="3:7">
       <c r="C350" t="s">
         <v>690</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="351" ht="24.0" customHeight="true">
+    <row r="351" ht="24" customHeight="1" spans="3:7">
       <c r="C351" t="s">
         <v>692</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="352" ht="24.0" customHeight="true">
+    <row r="352" ht="24" customHeight="1" spans="3:7">
       <c r="C352" t="s">
         <v>694</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="353" ht="24.0" customHeight="true">
+    <row r="353" ht="24" customHeight="1" spans="3:7">
       <c r="C353" t="s">
         <v>696</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="354" ht="24.0" customHeight="true">
+    <row r="354" ht="24" customHeight="1" spans="3:7">
       <c r="C354" t="s">
         <v>698</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="355" ht="24.0" customHeight="true">
+    <row r="355" ht="24" customHeight="1" spans="3:7">
       <c r="C355" t="s">
         <v>700</v>
       </c>

--- a/Excel/EquipRefineConfig.xlsx
+++ b/Excel/EquipRefineConfig.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2125,14 +2138,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2152,6 +2165,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2622,16 +2642,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2640,119 +2657,122 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2766,6 +2786,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3087,11 +3108,11 @@
   <sheetPr/>
   <dimension ref="C1:G355"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="H214" sqref="H214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="4" width="8.75" style="1" customWidth="1"/>
@@ -3102,18 +3123,18 @@
     <col min="16382" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="5:6">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="5:6">
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="3:7">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="3:7">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -3130,7 +3151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:7">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
@@ -3147,7 +3168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="3:7">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
@@ -3164,5953 +3185,5953 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="24" customHeight="1" spans="3:7">
-      <c r="C6" t="s">
+    <row r="6" customHeight="1" spans="3:7">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="24" customHeight="1" spans="3:7">
-      <c r="C7" t="s">
+    <row r="7" customHeight="1" spans="3:7">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="24" customHeight="1" spans="3:7">
-      <c r="C8" t="s">
+    <row r="8" customHeight="1" spans="3:7">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="24" customHeight="1" spans="3:7">
-      <c r="C9" t="s">
+    <row r="9" customHeight="1" spans="3:7">
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="24" customHeight="1" spans="3:7">
-      <c r="C10" t="s">
+    <row r="10" customHeight="1" spans="3:7">
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="24" customHeight="1" spans="3:7">
-      <c r="C11" t="s">
+    <row r="11" customHeight="1" spans="3:7">
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="24" customHeight="1" spans="3:7">
-      <c r="C12" t="s">
+    <row r="12" customHeight="1" spans="3:7">
+      <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" ht="24" customHeight="1" spans="3:7">
-      <c r="C13" t="s">
+    <row r="13" customHeight="1" spans="3:7">
+      <c r="C13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" ht="24" customHeight="1" spans="3:7">
-      <c r="C14" t="s">
+    <row r="14" customHeight="1" spans="3:7">
+      <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" ht="24" customHeight="1" spans="3:7">
-      <c r="C15" t="s">
+    <row r="15" customHeight="1" spans="3:7">
+      <c r="C15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="3:7">
-      <c r="C16" t="s">
+    <row r="16" customHeight="1" spans="3:7">
+      <c r="C16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="24" customHeight="1" spans="3:7">
-      <c r="C17" t="s">
+    <row r="17" customHeight="1" spans="3:7">
+      <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" ht="24" customHeight="1" spans="3:7">
-      <c r="C18" t="s">
+    <row r="18" customHeight="1" spans="3:7">
+      <c r="C18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" ht="24" customHeight="1" spans="3:7">
-      <c r="C19" t="s">
+    <row r="19" customHeight="1" spans="3:7">
+      <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" ht="24" customHeight="1" spans="3:7">
-      <c r="C20" t="s">
+    <row r="20" customHeight="1" spans="3:7">
+      <c r="C20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" ht="24" customHeight="1" spans="3:7">
-      <c r="C21" t="s">
+    <row r="21" customHeight="1" spans="3:7">
+      <c r="C21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" ht="24" customHeight="1" spans="3:7">
-      <c r="C22" t="s">
+    <row r="22" customHeight="1" spans="3:7">
+      <c r="C22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" ht="24" customHeight="1" spans="3:7">
-      <c r="C23" t="s">
+    <row r="23" customHeight="1" spans="3:7">
+      <c r="C23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" ht="24" customHeight="1" spans="3:7">
-      <c r="C24" t="s">
+    <row r="24" customHeight="1" spans="3:7">
+      <c r="C24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" ht="24" customHeight="1" spans="3:7">
-      <c r="C25" t="s">
+    <row r="25" customHeight="1" spans="3:7">
+      <c r="C25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" ht="24" customHeight="1" spans="3:7">
-      <c r="C26" t="s">
+    <row r="26" customHeight="1" spans="3:7">
+      <c r="C26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" ht="24" customHeight="1" spans="3:7">
-      <c r="C27" t="s">
+    <row r="27" customHeight="1" spans="3:7">
+      <c r="C27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" ht="24" customHeight="1" spans="3:7">
-      <c r="C28" t="s">
+    <row r="28" customHeight="1" spans="3:7">
+      <c r="C28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" ht="24" customHeight="1" spans="3:7">
-      <c r="C29" t="s">
+    <row r="29" customHeight="1" spans="3:7">
+      <c r="C29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" ht="24" customHeight="1" spans="3:7">
-      <c r="C30" t="s">
+    <row r="30" customHeight="1" spans="3:7">
+      <c r="C30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" ht="24" customHeight="1" spans="3:7">
-      <c r="C31" t="s">
+    <row r="31" customHeight="1" spans="3:7">
+      <c r="C31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" ht="24" customHeight="1" spans="3:7">
-      <c r="C32" t="s">
+    <row r="32" customHeight="1" spans="3:7">
+      <c r="C32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" ht="24" customHeight="1" spans="3:7">
-      <c r="C33" t="s">
+    <row r="33" customHeight="1" spans="3:7">
+      <c r="C33" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" ht="24" customHeight="1" spans="3:7">
-      <c r="C34" t="s">
+    <row r="34" customHeight="1" spans="3:7">
+      <c r="C34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" ht="24" customHeight="1" spans="3:7">
-      <c r="C35" t="s">
+    <row r="35" customHeight="1" spans="3:7">
+      <c r="C35" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" ht="24" customHeight="1" spans="3:7">
-      <c r="C36" t="s">
+    <row r="36" customHeight="1" spans="3:7">
+      <c r="C36" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" ht="24" customHeight="1" spans="3:7">
-      <c r="C37" t="s">
+    <row r="37" customHeight="1" spans="3:7">
+      <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" ht="24" customHeight="1" spans="3:7">
-      <c r="C38" t="s">
+    <row r="38" customHeight="1" spans="3:7">
+      <c r="C38" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" ht="24" customHeight="1" spans="3:7">
-      <c r="C39" t="s">
+    <row r="39" customHeight="1" spans="3:7">
+      <c r="C39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" ht="24" customHeight="1" spans="3:7">
-      <c r="C40" t="s">
+    <row r="40" customHeight="1" spans="3:7">
+      <c r="C40" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" ht="24" customHeight="1" spans="3:7">
-      <c r="C41" t="s">
+    <row r="41" customHeight="1" spans="3:7">
+      <c r="C41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" ht="24" customHeight="1" spans="3:7">
-      <c r="C42" t="s">
+    <row r="42" customHeight="1" spans="3:7">
+      <c r="C42" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" ht="24" customHeight="1" spans="3:7">
-      <c r="C43" t="s">
+    <row r="43" customHeight="1" spans="3:7">
+      <c r="C43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" ht="24" customHeight="1" spans="3:7">
-      <c r="C44" t="s">
+    <row r="44" customHeight="1" spans="3:7">
+      <c r="C44" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" ht="24" customHeight="1" spans="3:7">
-      <c r="C45" t="s">
+    <row r="45" customHeight="1" spans="3:7">
+      <c r="C45" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" ht="24" customHeight="1" spans="3:7">
-      <c r="C46" t="s">
+    <row r="46" customHeight="1" spans="3:7">
+      <c r="C46" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" ht="24" customHeight="1" spans="3:7">
-      <c r="C47" t="s">
+    <row r="47" customHeight="1" spans="3:7">
+      <c r="C47" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" ht="24" customHeight="1" spans="3:7">
-      <c r="C48" t="s">
+    <row r="48" customHeight="1" spans="3:7">
+      <c r="C48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" ht="24" customHeight="1" spans="3:7">
-      <c r="C49" t="s">
+    <row r="49" customHeight="1" spans="3:7">
+      <c r="C49" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" ht="24" customHeight="1" spans="3:7">
-      <c r="C50" t="s">
+    <row r="50" customHeight="1" spans="3:7">
+      <c r="C50" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" ht="24" customHeight="1" spans="3:7">
-      <c r="C51" t="s">
+    <row r="51" customHeight="1" spans="3:7">
+      <c r="C51" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" ht="24" customHeight="1" spans="3:7">
-      <c r="C52" t="s">
+    <row r="52" customHeight="1" spans="3:7">
+      <c r="C52" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="53" ht="24" customHeight="1" spans="3:7">
-      <c r="C53" t="s">
+    <row r="53" customHeight="1" spans="3:7">
+      <c r="C53" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" ht="24" customHeight="1" spans="3:7">
-      <c r="C54" t="s">
+    <row r="54" customHeight="1" spans="3:7">
+      <c r="C54" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" ht="24" customHeight="1" spans="3:7">
-      <c r="C55" t="s">
+    <row r="55" customHeight="1" spans="3:7">
+      <c r="C55" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" ht="24" customHeight="1" spans="3:7">
-      <c r="C56" t="s">
+    <row r="56" customHeight="1" spans="3:7">
+      <c r="C56" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" ht="24" customHeight="1" spans="3:7">
-      <c r="C57" t="s">
+    <row r="57" customHeight="1" spans="3:7">
+      <c r="C57" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" ht="24" customHeight="1" spans="3:7">
-      <c r="C58" t="s">
+    <row r="58" customHeight="1" spans="3:7">
+      <c r="C58" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="59" ht="24" customHeight="1" spans="3:7">
-      <c r="C59" t="s">
+    <row r="59" customHeight="1" spans="3:7">
+      <c r="C59" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60" ht="24" customHeight="1" spans="3:7">
-      <c r="C60" t="s">
+    <row r="60" customHeight="1" spans="3:7">
+      <c r="C60" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="61" ht="24" customHeight="1" spans="3:7">
-      <c r="C61" t="s">
+    <row r="61" customHeight="1" spans="3:7">
+      <c r="C61" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="62" ht="24" customHeight="1" spans="3:7">
-      <c r="C62" t="s">
+    <row r="62" customHeight="1" spans="3:7">
+      <c r="C62" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63" ht="24" customHeight="1" spans="3:7">
-      <c r="C63" t="s">
+    <row r="63" customHeight="1" spans="3:7">
+      <c r="C63" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" ht="24" customHeight="1" spans="3:7">
-      <c r="C64" t="s">
+    <row r="64" customHeight="1" spans="3:7">
+      <c r="C64" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="65" ht="24" customHeight="1" spans="3:7">
-      <c r="C65" t="s">
+    <row r="65" customHeight="1" spans="3:7">
+      <c r="C65" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" ht="24" customHeight="1" spans="3:7">
-      <c r="C66" t="s">
+    <row r="66" customHeight="1" spans="3:7">
+      <c r="C66" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="67" ht="24" customHeight="1" spans="3:7">
-      <c r="C67" t="s">
+    <row r="67" customHeight="1" spans="3:7">
+      <c r="C67" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="68" ht="24" customHeight="1" spans="3:7">
-      <c r="C68" t="s">
+    <row r="68" customHeight="1" spans="3:7">
+      <c r="C68" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="69" ht="24" customHeight="1" spans="3:7">
-      <c r="C69" t="s">
+    <row r="69" customHeight="1" spans="3:7">
+      <c r="C69" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" ht="24" customHeight="1" spans="3:7">
-      <c r="C70" t="s">
+    <row r="70" customHeight="1" spans="3:7">
+      <c r="C70" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" ht="24" customHeight="1" spans="3:7">
-      <c r="C71" t="s">
+    <row r="71" customHeight="1" spans="3:7">
+      <c r="C71" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="72" ht="24" customHeight="1" spans="3:7">
-      <c r="C72" t="s">
+    <row r="72" customHeight="1" spans="3:7">
+      <c r="C72" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="73" ht="24" customHeight="1" spans="3:7">
-      <c r="C73" t="s">
+    <row r="73" customHeight="1" spans="3:7">
+      <c r="C73" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="74" ht="24" customHeight="1" spans="3:7">
-      <c r="C74" t="s">
+    <row r="74" customHeight="1" spans="3:7">
+      <c r="C74" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="75" ht="24" customHeight="1" spans="3:7">
-      <c r="C75" t="s">
+    <row r="75" customHeight="1" spans="3:7">
+      <c r="C75" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="76" ht="24" customHeight="1" spans="3:7">
-      <c r="C76" t="s">
+    <row r="76" customHeight="1" spans="3:7">
+      <c r="C76" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="77" ht="24" customHeight="1" spans="3:7">
-      <c r="C77" t="s">
+    <row r="77" customHeight="1" spans="3:7">
+      <c r="C77" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="78" ht="24" customHeight="1" spans="3:7">
-      <c r="C78" t="s">
+    <row r="78" customHeight="1" spans="3:7">
+      <c r="C78" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="79" ht="24" customHeight="1" spans="3:7">
-      <c r="C79" t="s">
+    <row r="79" customHeight="1" spans="3:7">
+      <c r="C79" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="80" ht="24" customHeight="1" spans="3:7">
-      <c r="C80" t="s">
+    <row r="80" customHeight="1" spans="3:7">
+      <c r="C80" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="81" ht="24" customHeight="1" spans="3:7">
-      <c r="C81" t="s">
+    <row r="81" customHeight="1" spans="3:7">
+      <c r="C81" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="82" ht="24" customHeight="1" spans="3:7">
-      <c r="C82" t="s">
+    <row r="82" customHeight="1" spans="3:7">
+      <c r="C82" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="83" ht="24" customHeight="1" spans="3:7">
-      <c r="C83" t="s">
+    <row r="83" customHeight="1" spans="3:7">
+      <c r="C83" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="84" ht="24" customHeight="1" spans="3:7">
-      <c r="C84" t="s">
+    <row r="84" customHeight="1" spans="3:7">
+      <c r="C84" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="85" ht="24" customHeight="1" spans="3:7">
-      <c r="C85" t="s">
+    <row r="85" customHeight="1" spans="3:7">
+      <c r="C85" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="86" ht="24" customHeight="1" spans="3:7">
-      <c r="C86" t="s">
+    <row r="86" customHeight="1" spans="3:7">
+      <c r="C86" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="87" ht="24" customHeight="1" spans="3:7">
-      <c r="C87" t="s">
+    <row r="87" customHeight="1" spans="3:7">
+      <c r="C87" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="88" ht="24" customHeight="1" spans="3:7">
-      <c r="C88" t="s">
+    <row r="88" customHeight="1" spans="3:7">
+      <c r="C88" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="89" ht="24" customHeight="1" spans="3:7">
-      <c r="C89" t="s">
+    <row r="89" customHeight="1" spans="3:7">
+      <c r="C89" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="90" ht="24" customHeight="1" spans="3:7">
-      <c r="C90" t="s">
+    <row r="90" customHeight="1" spans="3:7">
+      <c r="C90" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="91" ht="24" customHeight="1" spans="3:7">
-      <c r="C91" t="s">
+    <row r="91" customHeight="1" spans="3:7">
+      <c r="C91" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="92" ht="24" customHeight="1" spans="3:7">
-      <c r="C92" t="s">
+    <row r="92" customHeight="1" spans="3:7">
+      <c r="C92" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="93" ht="24" customHeight="1" spans="3:7">
-      <c r="C93" t="s">
+    <row r="93" customHeight="1" spans="3:7">
+      <c r="C93" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="94" ht="24" customHeight="1" spans="3:7">
-      <c r="C94" t="s">
+    <row r="94" customHeight="1" spans="3:7">
+      <c r="C94" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="95" ht="24" customHeight="1" spans="3:7">
-      <c r="C95" t="s">
+    <row r="95" customHeight="1" spans="3:7">
+      <c r="C95" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="96" ht="24" customHeight="1" spans="3:7">
-      <c r="C96" t="s">
+    <row r="96" customHeight="1" spans="3:7">
+      <c r="C96" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="97" ht="24" customHeight="1" spans="3:7">
-      <c r="C97" t="s">
+    <row r="97" customHeight="1" spans="3:7">
+      <c r="C97" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="98" ht="24" customHeight="1" spans="3:7">
-      <c r="C98" t="s">
+    <row r="98" customHeight="1" spans="3:7">
+      <c r="C98" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="99" ht="24" customHeight="1" spans="3:7">
-      <c r="C99" t="s">
+    <row r="99" customHeight="1" spans="3:7">
+      <c r="C99" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="100" ht="24" customHeight="1" spans="3:7">
-      <c r="C100" t="s">
+    <row r="100" customHeight="1" spans="3:7">
+      <c r="C100" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="101" ht="24" customHeight="1" spans="3:7">
-      <c r="C101" t="s">
+    <row r="101" customHeight="1" spans="3:7">
+      <c r="C101" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="102" ht="24" customHeight="1" spans="3:7">
-      <c r="C102" t="s">
+    <row r="102" customHeight="1" spans="3:7">
+      <c r="C102" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="103" ht="24" customHeight="1" spans="3:7">
-      <c r="C103" t="s">
+    <row r="103" customHeight="1" spans="3:7">
+      <c r="C103" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="104" ht="24" customHeight="1" spans="3:7">
-      <c r="C104" t="s">
+    <row r="104" customHeight="1" spans="3:7">
+      <c r="C104" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="105" ht="24" customHeight="1" spans="3:7">
-      <c r="C105" t="s">
+    <row r="105" customHeight="1" spans="3:7">
+      <c r="C105" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="106" ht="24" customHeight="1" spans="3:7">
-      <c r="C106" t="s">
+    <row r="106" customHeight="1" spans="3:7">
+      <c r="C106" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="107" ht="24" customHeight="1" spans="3:7">
-      <c r="C107" t="s">
+    <row r="107" customHeight="1" spans="3:7">
+      <c r="C107" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="108" ht="24" customHeight="1" spans="3:7">
-      <c r="C108" t="s">
+    <row r="108" customHeight="1" spans="3:7">
+      <c r="C108" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="109" ht="24" customHeight="1" spans="3:7">
-      <c r="C109" t="s">
+    <row r="109" customHeight="1" spans="3:7">
+      <c r="C109" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="110" ht="24" customHeight="1" spans="3:7">
-      <c r="C110" t="s">
+    <row r="110" customHeight="1" spans="3:7">
+      <c r="C110" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="111" ht="24" customHeight="1" spans="3:7">
-      <c r="C111" t="s">
+    <row r="111" customHeight="1" spans="3:7">
+      <c r="C111" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="112" ht="24" customHeight="1" spans="3:7">
-      <c r="C112" t="s">
+    <row r="112" customHeight="1" spans="3:7">
+      <c r="C112" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="113" ht="24" customHeight="1" spans="3:7">
-      <c r="C113" t="s">
+    <row r="113" customHeight="1" spans="3:7">
+      <c r="C113" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="114" ht="24" customHeight="1" spans="3:7">
-      <c r="C114" t="s">
+    <row r="114" customHeight="1" spans="3:7">
+      <c r="C114" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="115" ht="24" customHeight="1" spans="3:7">
-      <c r="C115" t="s">
+    <row r="115" customHeight="1" spans="3:7">
+      <c r="C115" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="116" ht="24" customHeight="1" spans="3:7">
-      <c r="C116" t="s">
+    <row r="116" customHeight="1" spans="3:7">
+      <c r="C116" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="117" ht="24" customHeight="1" spans="3:7">
-      <c r="C117" t="s">
+    <row r="117" customHeight="1" spans="3:7">
+      <c r="C117" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="118" ht="24" customHeight="1" spans="3:7">
-      <c r="C118" t="s">
+    <row r="118" customHeight="1" spans="3:7">
+      <c r="C118" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="119" ht="24" customHeight="1" spans="3:7">
-      <c r="C119" t="s">
+    <row r="119" customHeight="1" spans="3:7">
+      <c r="C119" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="120" ht="24" customHeight="1" spans="3:7">
-      <c r="C120" t="s">
+    <row r="120" customHeight="1" spans="3:7">
+      <c r="C120" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="121" ht="24" customHeight="1" spans="3:7">
-      <c r="C121" t="s">
+    <row r="121" customHeight="1" spans="3:7">
+      <c r="C121" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="122" ht="24" customHeight="1" spans="3:7">
-      <c r="C122" t="s">
+    <row r="122" customHeight="1" spans="3:7">
+      <c r="C122" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="123" ht="24" customHeight="1" spans="3:7">
-      <c r="C123" t="s">
+    <row r="123" customHeight="1" spans="3:7">
+      <c r="C123" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="124" ht="24" customHeight="1" spans="3:7">
-      <c r="C124" t="s">
+    <row r="124" customHeight="1" spans="3:7">
+      <c r="C124" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="125" ht="24" customHeight="1" spans="3:7">
-      <c r="C125" t="s">
+    <row r="125" customHeight="1" spans="3:7">
+      <c r="C125" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="126" ht="24" customHeight="1" spans="3:7">
-      <c r="C126" t="s">
+    <row r="126" customHeight="1" spans="3:7">
+      <c r="C126" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="127" ht="24" customHeight="1" spans="3:7">
-      <c r="C127" t="s">
+    <row r="127" customHeight="1" spans="3:7">
+      <c r="C127" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="128" ht="24" customHeight="1" spans="3:7">
-      <c r="C128" t="s">
+    <row r="128" customHeight="1" spans="3:7">
+      <c r="C128" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="129" ht="24" customHeight="1" spans="3:7">
-      <c r="C129" t="s">
+    <row r="129" customHeight="1" spans="3:7">
+      <c r="C129" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="130" ht="24" customHeight="1" spans="3:7">
-      <c r="C130" t="s">
+    <row r="130" customHeight="1" spans="3:7">
+      <c r="C130" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="131" ht="24" customHeight="1" spans="3:7">
-      <c r="C131" t="s">
+    <row r="131" customHeight="1" spans="3:7">
+      <c r="C131" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="132" ht="24" customHeight="1" spans="3:7">
-      <c r="C132" t="s">
+    <row r="132" customHeight="1" spans="3:7">
+      <c r="C132" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="133" ht="24" customHeight="1" spans="3:7">
-      <c r="C133" t="s">
+    <row r="133" customHeight="1" spans="3:7">
+      <c r="C133" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="134" ht="24" customHeight="1" spans="3:7">
-      <c r="C134" t="s">
+    <row r="134" customHeight="1" spans="3:7">
+      <c r="C134" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="135" ht="24" customHeight="1" spans="3:7">
-      <c r="C135" t="s">
+    <row r="135" customHeight="1" spans="3:7">
+      <c r="C135" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="136" ht="24" customHeight="1" spans="3:7">
-      <c r="C136" t="s">
+    <row r="136" customHeight="1" spans="3:7">
+      <c r="C136" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="137" ht="24" customHeight="1" spans="3:7">
-      <c r="C137" t="s">
+    <row r="137" customHeight="1" spans="3:7">
+      <c r="C137" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="138" ht="24" customHeight="1" spans="3:7">
-      <c r="C138" t="s">
+    <row r="138" customHeight="1" spans="3:7">
+      <c r="C138" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="139" ht="24" customHeight="1" spans="3:7">
-      <c r="C139" t="s">
+    <row r="139" customHeight="1" spans="3:7">
+      <c r="C139" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="140" ht="24" customHeight="1" spans="3:7">
-      <c r="C140" t="s">
+    <row r="140" customHeight="1" spans="3:7">
+      <c r="C140" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="141" ht="24" customHeight="1" spans="3:7">
-      <c r="C141" t="s">
+    <row r="141" customHeight="1" spans="3:7">
+      <c r="C141" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="142" ht="24" customHeight="1" spans="3:7">
-      <c r="C142" t="s">
+    <row r="142" customHeight="1" spans="3:7">
+      <c r="C142" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="143" ht="24" customHeight="1" spans="3:7">
-      <c r="C143" t="s">
+    <row r="143" customHeight="1" spans="3:7">
+      <c r="C143" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="7" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="144" ht="24" customHeight="1" spans="3:7">
-      <c r="C144" t="s">
+    <row r="144" customHeight="1" spans="3:7">
+      <c r="C144" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="145" ht="24" customHeight="1" spans="3:7">
-      <c r="C145" t="s">
+    <row r="145" customHeight="1" spans="3:7">
+      <c r="C145" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="146" ht="24" customHeight="1" spans="3:7">
-      <c r="C146" t="s">
+    <row r="146" customHeight="1" spans="3:7">
+      <c r="C146" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="147" ht="24" customHeight="1" spans="3:7">
-      <c r="C147" t="s">
+    <row r="147" customHeight="1" spans="3:7">
+      <c r="C147" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="148" ht="24" customHeight="1" spans="3:7">
-      <c r="C148" t="s">
+    <row r="148" customHeight="1" spans="3:7">
+      <c r="C148" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="149" ht="24" customHeight="1" spans="3:7">
-      <c r="C149" t="s">
+    <row r="149" customHeight="1" spans="3:7">
+      <c r="C149" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="150" ht="24" customHeight="1" spans="3:7">
-      <c r="C150" t="s">
+    <row r="150" customHeight="1" spans="3:7">
+      <c r="C150" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="151" ht="24" customHeight="1" spans="3:7">
-      <c r="C151" t="s">
+    <row r="151" customHeight="1" spans="3:7">
+      <c r="C151" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="152" ht="24" customHeight="1" spans="3:7">
-      <c r="C152" t="s">
+    <row r="152" customHeight="1" spans="3:7">
+      <c r="C152" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="153" ht="24" customHeight="1" spans="3:7">
-      <c r="C153" t="s">
+    <row r="153" customHeight="1" spans="3:7">
+      <c r="C153" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="154" ht="24" customHeight="1" spans="3:7">
-      <c r="C154" t="s">
+    <row r="154" customHeight="1" spans="3:7">
+      <c r="C154" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="155" ht="24" customHeight="1" spans="3:7">
-      <c r="C155" t="s">
+    <row r="155" customHeight="1" spans="3:7">
+      <c r="C155" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" s="7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="156" ht="24" customHeight="1" spans="3:7">
-      <c r="C156" t="s">
+    <row r="156" customHeight="1" spans="3:7">
+      <c r="C156" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="157" ht="24" customHeight="1" spans="3:7">
-      <c r="C157" t="s">
+    <row r="157" customHeight="1" spans="3:7">
+      <c r="C157" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="158" ht="24" customHeight="1" spans="3:7">
-      <c r="C158" t="s">
+    <row r="158" customHeight="1" spans="3:7">
+      <c r="C158" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="7" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="159" ht="24" customHeight="1" spans="3:7">
-      <c r="C159" t="s">
+    <row r="159" customHeight="1" spans="3:7">
+      <c r="C159" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="160" ht="24" customHeight="1" spans="3:7">
-      <c r="C160" t="s">
+    <row r="160" customHeight="1" spans="3:7">
+      <c r="C160" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="161" ht="24" customHeight="1" spans="3:7">
-      <c r="C161" t="s">
+    <row r="161" customHeight="1" spans="3:7">
+      <c r="C161" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="162" ht="24" customHeight="1" spans="3:7">
-      <c r="C162" t="s">
+    <row r="162" customHeight="1" spans="3:7">
+      <c r="C162" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="163" ht="24" customHeight="1" spans="3:7">
-      <c r="C163" t="s">
+    <row r="163" customHeight="1" spans="3:7">
+      <c r="C163" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="164" ht="24" customHeight="1" spans="3:7">
-      <c r="C164" t="s">
+    <row r="164" customHeight="1" spans="3:7">
+      <c r="C164" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" s="7" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="165" ht="24" customHeight="1" spans="3:7">
-      <c r="C165" t="s">
+    <row r="165" customHeight="1" spans="3:7">
+      <c r="C165" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="166" ht="24" customHeight="1" spans="3:7">
-      <c r="C166" t="s">
+    <row r="166" customHeight="1" spans="3:7">
+      <c r="C166" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" s="7" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="167" ht="24" customHeight="1" spans="3:7">
-      <c r="C167" t="s">
+    <row r="167" customHeight="1" spans="3:7">
+      <c r="C167" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" s="7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="168" ht="24" customHeight="1" spans="3:7">
-      <c r="C168" t="s">
+    <row r="168" customHeight="1" spans="3:7">
+      <c r="C168" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="169" ht="24" customHeight="1" spans="3:7">
-      <c r="C169" t="s">
+    <row r="169" customHeight="1" spans="3:7">
+      <c r="C169" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" s="7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="170" ht="24" customHeight="1" spans="3:7">
-      <c r="C170" t="s">
+    <row r="170" customHeight="1" spans="3:7">
+      <c r="C170" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" s="7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="171" ht="24" customHeight="1" spans="3:7">
-      <c r="C171" t="s">
+    <row r="171" customHeight="1" spans="3:7">
+      <c r="C171" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" s="7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="172" ht="24" customHeight="1" spans="3:7">
-      <c r="C172" t="s">
+    <row r="172" customHeight="1" spans="3:7">
+      <c r="C172" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" s="7" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="173" ht="24" customHeight="1" spans="3:7">
-      <c r="C173" t="s">
+    <row r="173" customHeight="1" spans="3:7">
+      <c r="C173" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="174" ht="24" customHeight="1" spans="3:7">
-      <c r="C174" t="s">
+    <row r="174" customHeight="1" spans="3:7">
+      <c r="C174" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F174" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G174" t="s">
+      <c r="G174" s="7" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="175" ht="24" customHeight="1" spans="3:7">
-      <c r="C175" t="s">
+    <row r="175" customHeight="1" spans="3:7">
+      <c r="C175" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G175" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="176" ht="24" customHeight="1" spans="3:7">
-      <c r="C176" t="s">
+    <row r="176" customHeight="1" spans="3:7">
+      <c r="C176" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" s="7" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="177" ht="24" customHeight="1" spans="3:7">
-      <c r="C177" t="s">
+    <row r="177" customHeight="1" spans="3:7">
+      <c r="C177" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G177" s="7" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="178" ht="24" customHeight="1" spans="3:7">
-      <c r="C178" t="s">
+    <row r="178" customHeight="1" spans="3:7">
+      <c r="C178" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G178" s="7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="179" ht="24" customHeight="1" spans="3:7">
-      <c r="C179" t="s">
+    <row r="179" customHeight="1" spans="3:7">
+      <c r="C179" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="180" ht="24" customHeight="1" spans="3:7">
-      <c r="C180" t="s">
+    <row r="180" customHeight="1" spans="3:7">
+      <c r="C180" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" s="7" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="181" ht="24" customHeight="1" spans="3:7">
-      <c r="C181" t="s">
+    <row r="181" customHeight="1" spans="3:7">
+      <c r="C181" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E181" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" s="7" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="182" ht="24" customHeight="1" spans="3:7">
-      <c r="C182" t="s">
+    <row r="182" customHeight="1" spans="3:7">
+      <c r="C182" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G182" s="7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="183" ht="24" customHeight="1" spans="3:7">
-      <c r="C183" t="s">
+    <row r="183" customHeight="1" spans="3:7">
+      <c r="C183" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G183" s="7" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="184" ht="24" customHeight="1" spans="3:7">
-      <c r="C184" t="s">
+    <row r="184" customHeight="1" spans="3:7">
+      <c r="C184" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G184" s="7" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="185" ht="24" customHeight="1" spans="3:7">
-      <c r="C185" t="s">
+    <row r="185" customHeight="1" spans="3:7">
+      <c r="C185" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G185" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="186" ht="24" customHeight="1" spans="3:7">
-      <c r="C186" t="s">
+    <row r="186" customHeight="1" spans="3:7">
+      <c r="C186" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" s="7" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="187" ht="24" customHeight="1" spans="3:7">
-      <c r="C187" t="s">
+    <row r="187" customHeight="1" spans="3:7">
+      <c r="C187" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G187" s="7" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="188" ht="24" customHeight="1" spans="3:7">
-      <c r="C188" t="s">
+    <row r="188" customHeight="1" spans="3:7">
+      <c r="C188" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" s="7" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="189" ht="24" customHeight="1" spans="3:7">
-      <c r="C189" t="s">
+    <row r="189" customHeight="1" spans="3:7">
+      <c r="C189" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189" s="7" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="190" ht="24" customHeight="1" spans="3:7">
-      <c r="C190" t="s">
+    <row r="190" customHeight="1" spans="3:7">
+      <c r="C190" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" s="7" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="191" ht="24" customHeight="1" spans="3:7">
-      <c r="C191" t="s">
+    <row r="191" customHeight="1" spans="3:7">
+      <c r="C191" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" s="7" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="192" ht="24" customHeight="1" spans="3:7">
-      <c r="C192" t="s">
+    <row r="192" customHeight="1" spans="3:7">
+      <c r="C192" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G192" s="7" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="193" ht="24" customHeight="1" spans="3:7">
-      <c r="C193" t="s">
+    <row r="193" customHeight="1" spans="3:7">
+      <c r="C193" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" s="7" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="194" ht="24" customHeight="1" spans="3:7">
-      <c r="C194" t="s">
+    <row r="194" customHeight="1" spans="3:7">
+      <c r="C194" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194" s="7" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="195" ht="24" customHeight="1" spans="3:7">
-      <c r="C195" t="s">
+    <row r="195" customHeight="1" spans="3:7">
+      <c r="C195" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" s="7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="196" ht="24" customHeight="1" spans="3:7">
-      <c r="C196" t="s">
+    <row r="196" customHeight="1" spans="3:7">
+      <c r="C196" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G196" s="7" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="197" ht="24" customHeight="1" spans="3:7">
-      <c r="C197" t="s">
+    <row r="197" customHeight="1" spans="3:7">
+      <c r="C197" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G197" s="7" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="198" ht="24" customHeight="1" spans="3:7">
-      <c r="C198" t="s">
+    <row r="198" customHeight="1" spans="3:7">
+      <c r="C198" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198" s="7" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="199" ht="24" customHeight="1" spans="3:7">
-      <c r="C199" t="s">
+    <row r="199" customHeight="1" spans="3:7">
+      <c r="C199" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" s="7" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="200" ht="24" customHeight="1" spans="3:7">
-      <c r="C200" t="s">
+    <row r="200" customHeight="1" spans="3:7">
+      <c r="C200" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" s="7" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="201" ht="24" customHeight="1" spans="3:7">
-      <c r="C201" t="s">
+    <row r="201" customHeight="1" spans="3:7">
+      <c r="C201" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G201" s="7" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="202" ht="24" customHeight="1" spans="3:7">
-      <c r="C202" t="s">
+    <row r="202" customHeight="1" spans="3:7">
+      <c r="C202" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G202" s="7" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="203" ht="24" customHeight="1" spans="3:7">
-      <c r="C203" t="s">
+    <row r="203" customHeight="1" spans="3:7">
+      <c r="C203" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G203" s="7" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="204" ht="24" customHeight="1" spans="3:7">
-      <c r="C204" t="s">
+    <row r="204" customHeight="1" spans="3:7">
+      <c r="C204" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G204" s="7" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="205" ht="24" customHeight="1" spans="3:7">
-      <c r="C205" t="s">
+    <row r="205" customHeight="1" spans="3:7">
+      <c r="C205" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G205" s="7" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="206" ht="24" customHeight="1" spans="3:7">
-      <c r="C206" t="s">
+    <row r="206" customHeight="1" spans="3:7">
+      <c r="C206" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G206" s="7" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="207" ht="24" customHeight="1" spans="3:7">
-      <c r="C207" t="s">
+    <row r="207" customHeight="1" spans="3:7">
+      <c r="C207" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G207" s="7" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="208" ht="24" customHeight="1" spans="3:7">
-      <c r="C208" t="s">
+    <row r="208" customHeight="1" spans="3:7">
+      <c r="C208" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E208" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G208" s="7" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="209" ht="24" customHeight="1" spans="3:7">
-      <c r="C209" t="s">
+    <row r="209" customHeight="1" spans="3:7">
+      <c r="C209" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G209" s="7" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="210" ht="24" customHeight="1" spans="3:7">
-      <c r="C210" t="s">
+    <row r="210" customHeight="1" spans="3:7">
+      <c r="C210" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210" s="7" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="211" ht="24" customHeight="1" spans="3:7">
-      <c r="C211" t="s">
+    <row r="211" customHeight="1" spans="3:7">
+      <c r="C211" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="7" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="212" ht="24" customHeight="1" spans="3:7">
-      <c r="C212" t="s">
+    <row r="212" customHeight="1" spans="3:7">
+      <c r="C212" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212" s="7" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="213" ht="24" customHeight="1" spans="3:7">
-      <c r="C213" t="s">
+    <row r="213" customHeight="1" spans="3:7">
+      <c r="C213" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="G213" t="s">
+      <c r="G213" s="7" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="214" ht="24" customHeight="1" spans="3:7">
-      <c r="C214" t="s">
+    <row r="214" customHeight="1" spans="3:7">
+      <c r="C214" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G214" s="7" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="215" ht="24" customHeight="1" spans="3:7">
-      <c r="C215" t="s">
+    <row r="215" customHeight="1" spans="3:7">
+      <c r="C215" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215" s="7" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="216" ht="24" customHeight="1" spans="3:7">
-      <c r="C216" t="s">
+    <row r="216" customHeight="1" spans="3:7">
+      <c r="C216" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G216" s="7" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="217" ht="24" customHeight="1" spans="3:7">
-      <c r="C217" t="s">
+    <row r="217" customHeight="1" spans="3:7">
+      <c r="C217" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G217" s="7" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="218" ht="24" customHeight="1" spans="3:7">
-      <c r="C218" t="s">
+    <row r="218" customHeight="1" spans="3:7">
+      <c r="C218" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" s="7" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="219" ht="24" customHeight="1" spans="3:7">
-      <c r="C219" t="s">
+    <row r="219" customHeight="1" spans="3:7">
+      <c r="C219" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" s="7" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="220" ht="24" customHeight="1" spans="3:7">
-      <c r="C220" t="s">
+    <row r="220" customHeight="1" spans="3:7">
+      <c r="C220" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F220" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G220" s="7" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="221" ht="24" customHeight="1" spans="3:7">
-      <c r="C221" t="s">
+    <row r="221" customHeight="1" spans="3:7">
+      <c r="C221" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F221" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G221" s="7" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="222" ht="24" customHeight="1" spans="3:7">
-      <c r="C222" t="s">
+    <row r="222" customHeight="1" spans="3:7">
+      <c r="C222" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E222" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F222" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G222" s="7" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="223" ht="24" customHeight="1" spans="3:7">
-      <c r="C223" t="s">
+    <row r="223" customHeight="1" spans="3:7">
+      <c r="C223" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="F223" t="s">
+      <c r="F223" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G223" s="7" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="224" ht="24" customHeight="1" spans="3:7">
-      <c r="C224" t="s">
+    <row r="224" customHeight="1" spans="3:7">
+      <c r="C224" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F224" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G224" s="7" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="225" ht="24" customHeight="1" spans="3:7">
-      <c r="C225" t="s">
+    <row r="225" customHeight="1" spans="3:7">
+      <c r="C225" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F225" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G225" s="7" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="226" ht="24" customHeight="1" spans="3:7">
-      <c r="C226" t="s">
+    <row r="226" customHeight="1" spans="3:7">
+      <c r="C226" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F226" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G226" s="7" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="227" ht="24" customHeight="1" spans="3:7">
-      <c r="C227" t="s">
+    <row r="227" customHeight="1" spans="3:7">
+      <c r="C227" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F227" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="G227" t="s">
+      <c r="G227" s="7" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="228" ht="24" customHeight="1" spans="3:7">
-      <c r="C228" t="s">
+    <row r="228" customHeight="1" spans="3:7">
+      <c r="C228" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F228" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G228" s="7" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="229" ht="24" customHeight="1" spans="3:7">
-      <c r="C229" t="s">
+    <row r="229" customHeight="1" spans="3:7">
+      <c r="C229" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F229" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G229" s="7" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="230" ht="24" customHeight="1" spans="3:7">
-      <c r="C230" t="s">
+    <row r="230" customHeight="1" spans="3:7">
+      <c r="C230" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E230" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F230" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G230" s="7" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="231" ht="24" customHeight="1" spans="3:7">
-      <c r="C231" t="s">
+    <row r="231" customHeight="1" spans="3:7">
+      <c r="C231" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" s="7" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="232" ht="24" customHeight="1" spans="3:7">
-      <c r="C232" t="s">
+    <row r="232" customHeight="1" spans="3:7">
+      <c r="C232" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F232" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G232" s="7" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="233" ht="24" customHeight="1" spans="3:7">
-      <c r="C233" t="s">
+    <row r="233" customHeight="1" spans="3:7">
+      <c r="C233" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F233" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G233" s="7" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="234" ht="24" customHeight="1" spans="3:7">
-      <c r="C234" t="s">
+    <row r="234" customHeight="1" spans="3:7">
+      <c r="C234" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F234" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G234" s="7" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="235" ht="24" customHeight="1" spans="3:7">
-      <c r="C235" t="s">
+    <row r="235" customHeight="1" spans="3:7">
+      <c r="C235" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E235" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F235" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="G235" t="s">
+      <c r="G235" s="7" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="236" ht="24" customHeight="1" spans="3:7">
-      <c r="C236" t="s">
+    <row r="236" customHeight="1" spans="3:7">
+      <c r="C236" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E236" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F236" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G236" s="7" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="237" ht="24" customHeight="1" spans="3:7">
-      <c r="C237" t="s">
+    <row r="237" customHeight="1" spans="3:7">
+      <c r="C237" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E237" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F237" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="G237" t="s">
+      <c r="G237" s="7" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="238" ht="24" customHeight="1" spans="3:7">
-      <c r="C238" t="s">
+    <row r="238" customHeight="1" spans="3:7">
+      <c r="C238" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="F238" t="s">
+      <c r="F238" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="G238" t="s">
+      <c r="G238" s="7" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="239" ht="24" customHeight="1" spans="3:7">
-      <c r="C239" t="s">
+    <row r="239" customHeight="1" spans="3:7">
+      <c r="C239" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F239" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G239" s="7" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="240" ht="24" customHeight="1" spans="3:7">
-      <c r="C240" t="s">
+    <row r="240" customHeight="1" spans="3:7">
+      <c r="C240" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F240" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="G240" t="s">
+      <c r="G240" s="7" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="241" ht="24" customHeight="1" spans="3:7">
-      <c r="C241" t="s">
+    <row r="241" customHeight="1" spans="3:7">
+      <c r="C241" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E241" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F241" t="s">
+      <c r="F241" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="G241" t="s">
+      <c r="G241" s="7" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="242" ht="24" customHeight="1" spans="3:7">
-      <c r="C242" t="s">
+    <row r="242" customHeight="1" spans="3:7">
+      <c r="C242" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E242" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="F242" t="s">
+      <c r="F242" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="G242" t="s">
+      <c r="G242" s="7" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="243" ht="24" customHeight="1" spans="3:7">
-      <c r="C243" t="s">
+    <row r="243" customHeight="1" spans="3:7">
+      <c r="C243" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E243" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F243" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="G243" t="s">
+      <c r="G243" s="7" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="244" ht="24" customHeight="1" spans="3:7">
-      <c r="C244" t="s">
+    <row r="244" customHeight="1" spans="3:7">
+      <c r="C244" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E244" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F244" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="G244" t="s">
+      <c r="G244" s="7" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="245" ht="24" customHeight="1" spans="3:7">
-      <c r="C245" t="s">
+    <row r="245" customHeight="1" spans="3:7">
+      <c r="C245" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E245" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F245" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G245" t="s">
+      <c r="G245" s="7" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="246" ht="24" customHeight="1" spans="3:7">
-      <c r="C246" t="s">
+    <row r="246" customHeight="1" spans="3:7">
+      <c r="C246" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E246" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F246" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G246" s="7" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="247" ht="24" customHeight="1" spans="3:7">
-      <c r="C247" t="s">
+    <row r="247" customHeight="1" spans="3:7">
+      <c r="C247" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E247" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F247" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="G247" t="s">
+      <c r="G247" s="7" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="248" ht="24" customHeight="1" spans="3:7">
-      <c r="C248" t="s">
+    <row r="248" customHeight="1" spans="3:7">
+      <c r="C248" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E248" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="F248" t="s">
+      <c r="F248" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="G248" t="s">
+      <c r="G248" s="7" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="249" ht="24" customHeight="1" spans="3:7">
-      <c r="C249" t="s">
+    <row r="249" customHeight="1" spans="3:7">
+      <c r="C249" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E249" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="F249" t="s">
+      <c r="F249" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="G249" t="s">
+      <c r="G249" s="7" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="250" ht="24" customHeight="1" spans="3:7">
-      <c r="C250" t="s">
+    <row r="250" customHeight="1" spans="3:7">
+      <c r="C250" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E250" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F250" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="G250" t="s">
+      <c r="G250" s="7" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="251" ht="24" customHeight="1" spans="3:7">
-      <c r="C251" t="s">
+    <row r="251" customHeight="1" spans="3:7">
+      <c r="C251" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E251" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="F251" t="s">
+      <c r="F251" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="G251" t="s">
+      <c r="G251" s="7" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="252" ht="24" customHeight="1" spans="3:7">
-      <c r="C252" t="s">
+    <row r="252" customHeight="1" spans="3:7">
+      <c r="C252" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E252" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F252" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="G252" t="s">
+      <c r="G252" s="7" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="253" ht="24" customHeight="1" spans="3:7">
-      <c r="C253" t="s">
+    <row r="253" customHeight="1" spans="3:7">
+      <c r="C253" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E253" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="F253" t="s">
+      <c r="F253" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="G253" t="s">
+      <c r="G253" s="7" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="254" ht="24" customHeight="1" spans="3:7">
-      <c r="C254" t="s">
+    <row r="254" customHeight="1" spans="3:7">
+      <c r="C254" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E254" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F254" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="G254" t="s">
+      <c r="G254" s="7" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="255" ht="24" customHeight="1" spans="3:7">
-      <c r="C255" t="s">
+    <row r="255" customHeight="1" spans="3:7">
+      <c r="C255" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E255" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F255" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="G255" t="s">
+      <c r="G255" s="7" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="256" ht="24" customHeight="1" spans="3:7">
-      <c r="C256" t="s">
+    <row r="256" customHeight="1" spans="3:7">
+      <c r="C256" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E256" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F256" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G256" t="s">
+      <c r="G256" s="7" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="257" ht="24" customHeight="1" spans="3:7">
-      <c r="C257" t="s">
+    <row r="257" customHeight="1" spans="3:7">
+      <c r="C257" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E257" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="F257" t="s">
+      <c r="F257" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G257" t="s">
+      <c r="G257" s="7" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="258" ht="24" customHeight="1" spans="3:7">
-      <c r="C258" t="s">
+    <row r="258" customHeight="1" spans="3:7">
+      <c r="C258" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E258" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F258" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="G258" t="s">
+      <c r="G258" s="7" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="259" ht="24" customHeight="1" spans="3:7">
-      <c r="C259" t="s">
+    <row r="259" customHeight="1" spans="3:7">
+      <c r="C259" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E259" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F259" t="s">
+      <c r="F259" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="G259" t="s">
+      <c r="G259" s="7" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="260" ht="24" customHeight="1" spans="3:7">
-      <c r="C260" t="s">
+    <row r="260" customHeight="1" spans="3:7">
+      <c r="C260" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E260" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F260" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="G260" t="s">
+      <c r="G260" s="7" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="261" ht="24" customHeight="1" spans="3:7">
-      <c r="C261" t="s">
+    <row r="261" customHeight="1" spans="3:7">
+      <c r="C261" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E261" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="F261" t="s">
+      <c r="F261" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="G261" t="s">
+      <c r="G261" s="7" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="262" ht="24" customHeight="1" spans="3:7">
-      <c r="C262" t="s">
+    <row r="262" customHeight="1" spans="3:7">
+      <c r="C262" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E262" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F262" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="G262" t="s">
+      <c r="G262" s="7" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="263" ht="24" customHeight="1" spans="3:7">
-      <c r="C263" t="s">
+    <row r="263" customHeight="1" spans="3:7">
+      <c r="C263" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E263" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="F263" t="s">
+      <c r="F263" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="G263" t="s">
+      <c r="G263" s="7" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="264" ht="24" customHeight="1" spans="3:7">
-      <c r="C264" t="s">
+    <row r="264" customHeight="1" spans="3:7">
+      <c r="C264" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E264" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="F264" t="s">
+      <c r="F264" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G264" t="s">
+      <c r="G264" s="7" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="265" ht="24" customHeight="1" spans="3:7">
-      <c r="C265" t="s">
+    <row r="265" customHeight="1" spans="3:7">
+      <c r="C265" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E265" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="F265" t="s">
+      <c r="F265" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G265" t="s">
+      <c r="G265" s="7" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="266" ht="24" customHeight="1" spans="3:7">
-      <c r="C266" t="s">
+    <row r="266" customHeight="1" spans="3:7">
+      <c r="C266" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E266" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="F266" t="s">
+      <c r="F266" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="G266" t="s">
+      <c r="G266" s="7" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="267" ht="24" customHeight="1" spans="3:7">
-      <c r="C267" t="s">
+    <row r="267" customHeight="1" spans="3:7">
+      <c r="C267" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E267" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F267" t="s">
+      <c r="F267" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="G267" t="s">
+      <c r="G267" s="7" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="268" ht="24" customHeight="1" spans="3:7">
-      <c r="C268" t="s">
+    <row r="268" customHeight="1" spans="3:7">
+      <c r="C268" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E268" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="F268" t="s">
+      <c r="F268" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="G268" t="s">
+      <c r="G268" s="7" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="269" ht="24" customHeight="1" spans="3:7">
-      <c r="C269" t="s">
+    <row r="269" customHeight="1" spans="3:7">
+      <c r="C269" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E269" t="s">
+      <c r="E269" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F269" t="s">
+      <c r="F269" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="G269" t="s">
+      <c r="G269" s="7" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="270" ht="24" customHeight="1" spans="3:7">
-      <c r="C270" t="s">
+    <row r="270" customHeight="1" spans="3:7">
+      <c r="C270" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="E270" t="s">
+      <c r="E270" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="F270" t="s">
+      <c r="F270" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="G270" t="s">
+      <c r="G270" s="7" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="271" ht="24" customHeight="1" spans="3:7">
-      <c r="C271" t="s">
+    <row r="271" customHeight="1" spans="3:7">
+      <c r="C271" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="E271" t="s">
+      <c r="E271" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="F271" t="s">
+      <c r="F271" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="G271" t="s">
+      <c r="G271" s="7" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="272" ht="24" customHeight="1" spans="3:7">
-      <c r="C272" t="s">
+    <row r="272" customHeight="1" spans="3:7">
+      <c r="C272" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E272" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F272" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="G272" t="s">
+      <c r="G272" s="7" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="273" ht="24" customHeight="1" spans="3:7">
-      <c r="C273" t="s">
+    <row r="273" customHeight="1" spans="3:7">
+      <c r="C273" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E273" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F273" t="s">
+      <c r="F273" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="G273" t="s">
+      <c r="G273" s="7" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="274" ht="24" customHeight="1" spans="3:7">
-      <c r="C274" t="s">
+    <row r="274" customHeight="1" spans="3:7">
+      <c r="C274" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="E274" t="s">
+      <c r="E274" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="F274" t="s">
+      <c r="F274" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="G274" t="s">
+      <c r="G274" s="7" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="275" ht="24" customHeight="1" spans="3:7">
-      <c r="C275" t="s">
+    <row r="275" customHeight="1" spans="3:7">
+      <c r="C275" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="E275" t="s">
+      <c r="E275" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F275" t="s">
+      <c r="F275" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="G275" t="s">
+      <c r="G275" s="7" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="276" ht="24" customHeight="1" spans="3:7">
-      <c r="C276" t="s">
+    <row r="276" customHeight="1" spans="3:7">
+      <c r="C276" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="E276" t="s">
+      <c r="E276" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="F276" t="s">
+      <c r="F276" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="G276" t="s">
+      <c r="G276" s="7" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="277" ht="24" customHeight="1" spans="3:7">
-      <c r="C277" t="s">
+    <row r="277" customHeight="1" spans="3:7">
+      <c r="C277" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="E277" t="s">
+      <c r="E277" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="F277" t="s">
+      <c r="F277" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="G277" t="s">
+      <c r="G277" s="7" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="278" ht="24" customHeight="1" spans="3:7">
-      <c r="C278" t="s">
+    <row r="278" customHeight="1" spans="3:7">
+      <c r="C278" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E278" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="F278" t="s">
+      <c r="F278" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="G278" t="s">
+      <c r="G278" s="7" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="279" ht="24" customHeight="1" spans="3:7">
-      <c r="C279" t="s">
+    <row r="279" customHeight="1" spans="3:7">
+      <c r="C279" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="E279" t="s">
+      <c r="E279" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="F279" t="s">
+      <c r="F279" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="G279" t="s">
+      <c r="G279" s="7" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="280" ht="24" customHeight="1" spans="3:7">
-      <c r="C280" t="s">
+    <row r="280" customHeight="1" spans="3:7">
+      <c r="C280" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E280" t="s">
+      <c r="E280" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="F280" t="s">
+      <c r="F280" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="G280" t="s">
+      <c r="G280" s="7" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="281" ht="24" customHeight="1" spans="3:7">
-      <c r="C281" t="s">
+    <row r="281" customHeight="1" spans="3:7">
+      <c r="C281" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E281" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="F281" t="s">
+      <c r="F281" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="G281" t="s">
+      <c r="G281" s="7" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="282" ht="24" customHeight="1" spans="3:7">
-      <c r="C282" t="s">
+    <row r="282" customHeight="1" spans="3:7">
+      <c r="C282" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E282" t="s">
+      <c r="E282" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="F282" t="s">
+      <c r="F282" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="G282" t="s">
+      <c r="G282" s="7" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="283" ht="24" customHeight="1" spans="3:7">
-      <c r="C283" t="s">
+    <row r="283" customHeight="1" spans="3:7">
+      <c r="C283" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="E283" t="s">
+      <c r="E283" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="F283" t="s">
+      <c r="F283" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="G283" t="s">
+      <c r="G283" s="7" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="284" ht="24" customHeight="1" spans="3:7">
-      <c r="C284" t="s">
+    <row r="284" customHeight="1" spans="3:7">
+      <c r="C284" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="E284" t="s">
+      <c r="E284" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="F284" t="s">
+      <c r="F284" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="G284" t="s">
+      <c r="G284" s="7" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="285" ht="24" customHeight="1" spans="3:7">
-      <c r="C285" t="s">
+    <row r="285" customHeight="1" spans="3:7">
+      <c r="C285" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E285" t="s">
+      <c r="E285" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F285" t="s">
+      <c r="F285" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="G285" t="s">
+      <c r="G285" s="7" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="286" ht="24" customHeight="1" spans="3:7">
-      <c r="C286" t="s">
+    <row r="286" customHeight="1" spans="3:7">
+      <c r="C286" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="E286" t="s">
+      <c r="E286" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="F286" t="s">
+      <c r="F286" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G286" t="s">
+      <c r="G286" s="7" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="287" ht="24" customHeight="1" spans="3:7">
-      <c r="C287" t="s">
+    <row r="287" customHeight="1" spans="3:7">
+      <c r="C287" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="E287" t="s">
+      <c r="E287" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="F287" t="s">
+      <c r="F287" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="G287" t="s">
+      <c r="G287" s="7" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="288" ht="24" customHeight="1" spans="3:7">
-      <c r="C288" t="s">
+    <row r="288" customHeight="1" spans="3:7">
+      <c r="C288" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="E288" t="s">
+      <c r="E288" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="F288" t="s">
+      <c r="F288" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="G288" t="s">
+      <c r="G288" s="7" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="289" ht="24" customHeight="1" spans="3:7">
-      <c r="C289" t="s">
+    <row r="289" customHeight="1" spans="3:7">
+      <c r="C289" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="E289" t="s">
+      <c r="E289" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="F289" t="s">
+      <c r="F289" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="G289" t="s">
+      <c r="G289" s="7" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="290" ht="24" customHeight="1" spans="3:7">
-      <c r="C290" t="s">
+    <row r="290" customHeight="1" spans="3:7">
+      <c r="C290" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="E290" t="s">
+      <c r="E290" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="F290" t="s">
+      <c r="F290" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="G290" t="s">
+      <c r="G290" s="7" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="291" ht="24" customHeight="1" spans="3:7">
-      <c r="C291" t="s">
+    <row r="291" customHeight="1" spans="3:7">
+      <c r="C291" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="E291" t="s">
+      <c r="E291" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="F291" t="s">
+      <c r="F291" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="G291" t="s">
+      <c r="G291" s="7" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="292" ht="24" customHeight="1" spans="3:7">
-      <c r="C292" t="s">
+    <row r="292" customHeight="1" spans="3:7">
+      <c r="C292" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="E292" t="s">
+      <c r="E292" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="F292" t="s">
+      <c r="F292" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="G292" t="s">
+      <c r="G292" s="7" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="293" ht="24" customHeight="1" spans="3:7">
-      <c r="C293" t="s">
+    <row r="293" customHeight="1" spans="3:7">
+      <c r="C293" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="E293" t="s">
+      <c r="E293" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="F293" t="s">
+      <c r="F293" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="G293" t="s">
+      <c r="G293" s="7" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="294" ht="24" customHeight="1" spans="3:7">
-      <c r="C294" t="s">
+    <row r="294" customHeight="1" spans="3:7">
+      <c r="C294" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="E294" t="s">
+      <c r="E294" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="F294" t="s">
+      <c r="F294" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="G294" t="s">
+      <c r="G294" s="7" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="295" ht="24" customHeight="1" spans="3:7">
-      <c r="C295" t="s">
+    <row r="295" customHeight="1" spans="3:7">
+      <c r="C295" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="E295" t="s">
+      <c r="E295" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="F295" t="s">
+      <c r="F295" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="G295" t="s">
+      <c r="G295" s="7" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="296" ht="24" customHeight="1" spans="3:7">
-      <c r="C296" t="s">
+    <row r="296" customHeight="1" spans="3:7">
+      <c r="C296" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D296" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="E296" t="s">
+      <c r="E296" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="F296" t="s">
+      <c r="F296" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="G296" t="s">
+      <c r="G296" s="7" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="297" ht="24" customHeight="1" spans="3:7">
-      <c r="C297" t="s">
+    <row r="297" customHeight="1" spans="3:7">
+      <c r="C297" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="E297" t="s">
+      <c r="E297" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="F297" t="s">
+      <c r="F297" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="G297" t="s">
+      <c r="G297" s="7" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="298" ht="24" customHeight="1" spans="3:7">
-      <c r="C298" t="s">
+    <row r="298" customHeight="1" spans="3:7">
+      <c r="C298" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="E298" t="s">
+      <c r="E298" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="F298" t="s">
+      <c r="F298" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="G298" t="s">
+      <c r="G298" s="7" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="299" ht="24" customHeight="1" spans="3:7">
-      <c r="C299" t="s">
+    <row r="299" customHeight="1" spans="3:7">
+      <c r="C299" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="E299" t="s">
+      <c r="E299" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="F299" t="s">
+      <c r="F299" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="G299" t="s">
+      <c r="G299" s="7" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="300" ht="24" customHeight="1" spans="3:7">
-      <c r="C300" t="s">
+    <row r="300" customHeight="1" spans="3:7">
+      <c r="C300" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="E300" t="s">
+      <c r="E300" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="F300" t="s">
+      <c r="F300" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="G300" t="s">
+      <c r="G300" s="7" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="301" ht="24" customHeight="1" spans="3:7">
-      <c r="C301" t="s">
+    <row r="301" customHeight="1" spans="3:7">
+      <c r="C301" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="E301" t="s">
+      <c r="E301" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="F301" t="s">
+      <c r="F301" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="G301" t="s">
+      <c r="G301" s="7" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="302" ht="24" customHeight="1" spans="3:7">
-      <c r="C302" t="s">
+    <row r="302" customHeight="1" spans="3:7">
+      <c r="C302" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="E302" t="s">
+      <c r="E302" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="F302" t="s">
+      <c r="F302" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="G302" t="s">
+      <c r="G302" s="7" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="303" ht="24" customHeight="1" spans="3:7">
-      <c r="C303" t="s">
+    <row r="303" customHeight="1" spans="3:7">
+      <c r="C303" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="E303" t="s">
+      <c r="E303" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="F303" t="s">
+      <c r="F303" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="G303" t="s">
+      <c r="G303" s="7" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="304" ht="24" customHeight="1" spans="3:7">
-      <c r="C304" t="s">
+    <row r="304" customHeight="1" spans="3:7">
+      <c r="C304" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="E304" t="s">
+      <c r="E304" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="F304" t="s">
+      <c r="F304" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="G304" t="s">
+      <c r="G304" s="7" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="305" ht="24" customHeight="1" spans="3:7">
-      <c r="C305" t="s">
+    <row r="305" customHeight="1" spans="3:7">
+      <c r="C305" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="E305" t="s">
+      <c r="E305" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="F305" t="s">
+      <c r="F305" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="G305" t="s">
+      <c r="G305" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="306" ht="24" customHeight="1" spans="3:7">
-      <c r="C306" t="s">
+    <row r="306" customHeight="1" spans="3:7">
+      <c r="C306" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="E306" t="s">
+      <c r="E306" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="F306" t="s">
+      <c r="F306" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="G306" t="s">
+      <c r="G306" s="7" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="307" ht="24" customHeight="1" spans="3:7">
-      <c r="C307" t="s">
+    <row r="307" customHeight="1" spans="3:7">
+      <c r="C307" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="E307" t="s">
+      <c r="E307" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="F307" t="s">
+      <c r="F307" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="G307" t="s">
+      <c r="G307" s="7" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="308" ht="24" customHeight="1" spans="3:7">
-      <c r="C308" t="s">
+    <row r="308" customHeight="1" spans="3:7">
+      <c r="C308" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="E308" t="s">
+      <c r="E308" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="F308" t="s">
+      <c r="F308" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="G308" t="s">
+      <c r="G308" s="7" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="309" ht="24" customHeight="1" spans="3:7">
-      <c r="C309" t="s">
+    <row r="309" customHeight="1" spans="3:7">
+      <c r="C309" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="E309" t="s">
+      <c r="E309" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="F309" t="s">
+      <c r="F309" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="G309" t="s">
+      <c r="G309" s="7" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="310" ht="24" customHeight="1" spans="3:7">
-      <c r="C310" t="s">
+    <row r="310" customHeight="1" spans="3:7">
+      <c r="C310" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="E310" t="s">
+      <c r="E310" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="F310" t="s">
+      <c r="F310" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="G310" t="s">
+      <c r="G310" s="7" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="311" ht="24" customHeight="1" spans="3:7">
-      <c r="C311" t="s">
+    <row r="311" customHeight="1" spans="3:7">
+      <c r="C311" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="E311" t="s">
+      <c r="E311" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="F311" t="s">
+      <c r="F311" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="G311" t="s">
+      <c r="G311" s="7" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="312" ht="24" customHeight="1" spans="3:7">
-      <c r="C312" t="s">
+    <row r="312" customHeight="1" spans="3:7">
+      <c r="C312" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="E312" t="s">
+      <c r="E312" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="F312" t="s">
+      <c r="F312" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="G312" t="s">
+      <c r="G312" s="7" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="313" ht="24" customHeight="1" spans="3:7">
-      <c r="C313" t="s">
+    <row r="313" customHeight="1" spans="3:7">
+      <c r="C313" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="E313" t="s">
+      <c r="E313" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="F313" t="s">
+      <c r="F313" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="G313" t="s">
+      <c r="G313" s="7" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="314" ht="24" customHeight="1" spans="3:7">
-      <c r="C314" t="s">
+    <row r="314" customHeight="1" spans="3:7">
+      <c r="C314" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="E314" t="s">
+      <c r="E314" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="F314" t="s">
+      <c r="F314" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="G314" t="s">
+      <c r="G314" s="7" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="315" ht="24" customHeight="1" spans="3:7">
-      <c r="C315" t="s">
+    <row r="315" customHeight="1" spans="3:7">
+      <c r="C315" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="E315" t="s">
+      <c r="E315" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="F315" t="s">
+      <c r="F315" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="G315" t="s">
+      <c r="G315" s="7" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="316" ht="24" customHeight="1" spans="3:7">
-      <c r="C316" t="s">
+    <row r="316" customHeight="1" spans="3:7">
+      <c r="C316" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="E316" t="s">
+      <c r="E316" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="F316" t="s">
+      <c r="F316" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="G316" t="s">
+      <c r="G316" s="7" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="317" ht="24" customHeight="1" spans="3:7">
-      <c r="C317" t="s">
+    <row r="317" customHeight="1" spans="3:7">
+      <c r="C317" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="E317" t="s">
+      <c r="E317" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="F317" t="s">
+      <c r="F317" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="G317" t="s">
+      <c r="G317" s="7" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="318" ht="24" customHeight="1" spans="3:7">
-      <c r="C318" t="s">
+    <row r="318" customHeight="1" spans="3:7">
+      <c r="C318" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="E318" t="s">
+      <c r="E318" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="F318" t="s">
+      <c r="F318" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="G318" t="s">
+      <c r="G318" s="7" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="319" ht="24" customHeight="1" spans="3:7">
-      <c r="C319" t="s">
+    <row r="319" customHeight="1" spans="3:7">
+      <c r="C319" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="E319" t="s">
+      <c r="E319" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="F319" t="s">
+      <c r="F319" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="G319" t="s">
+      <c r="G319" s="7" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="320" ht="24" customHeight="1" spans="3:7">
-      <c r="C320" t="s">
+    <row r="320" customHeight="1" spans="3:7">
+      <c r="C320" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D320" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="E320" t="s">
+      <c r="E320" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="F320" t="s">
+      <c r="F320" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="G320" t="s">
+      <c r="G320" s="7" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="321" ht="24" customHeight="1" spans="3:7">
-      <c r="C321" t="s">
+    <row r="321" customHeight="1" spans="3:7">
+      <c r="C321" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D321" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="E321" t="s">
+      <c r="E321" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="F321" t="s">
+      <c r="F321" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="G321" t="s">
+      <c r="G321" s="7" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="322" ht="24" customHeight="1" spans="3:7">
-      <c r="C322" t="s">
+    <row r="322" customHeight="1" spans="3:7">
+      <c r="C322" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="E322" t="s">
+      <c r="E322" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="F322" t="s">
+      <c r="F322" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="G322" t="s">
+      <c r="G322" s="7" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="323" ht="24" customHeight="1" spans="3:7">
-      <c r="C323" t="s">
+    <row r="323" customHeight="1" spans="3:7">
+      <c r="C323" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="E323" t="s">
+      <c r="E323" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="F323" t="s">
+      <c r="F323" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="G323" t="s">
+      <c r="G323" s="7" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="324" ht="24" customHeight="1" spans="3:7">
-      <c r="C324" t="s">
+    <row r="324" customHeight="1" spans="3:7">
+      <c r="C324" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="E324" t="s">
+      <c r="E324" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="F324" t="s">
+      <c r="F324" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="G324" t="s">
+      <c r="G324" s="7" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="325" ht="24" customHeight="1" spans="3:7">
-      <c r="C325" t="s">
+    <row r="325" customHeight="1" spans="3:7">
+      <c r="C325" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="E325" t="s">
+      <c r="E325" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="F325" t="s">
+      <c r="F325" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="G325" t="s">
+      <c r="G325" s="7" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="326" ht="24" customHeight="1" spans="3:7">
-      <c r="C326" t="s">
+    <row r="326" customHeight="1" spans="3:7">
+      <c r="C326" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D326" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="E326" t="s">
+      <c r="E326" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="F326" t="s">
+      <c r="F326" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="G326" t="s">
+      <c r="G326" s="7" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="327" ht="24" customHeight="1" spans="3:7">
-      <c r="C327" t="s">
+    <row r="327" customHeight="1" spans="3:7">
+      <c r="C327" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D327" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="E327" t="s">
+      <c r="E327" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="F327" t="s">
+      <c r="F327" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="G327" t="s">
+      <c r="G327" s="7" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="328" ht="24" customHeight="1" spans="3:7">
-      <c r="C328" t="s">
+    <row r="328" customHeight="1" spans="3:7">
+      <c r="C328" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D328" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="E328" t="s">
+      <c r="E328" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="F328" t="s">
+      <c r="F328" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G328" t="s">
+      <c r="G328" s="7" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="329" ht="24" customHeight="1" spans="3:7">
-      <c r="C329" t="s">
+    <row r="329" customHeight="1" spans="3:7">
+      <c r="C329" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D329" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="E329" t="s">
+      <c r="E329" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="F329" t="s">
+      <c r="F329" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="G329" t="s">
+      <c r="G329" s="7" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="330" ht="24" customHeight="1" spans="3:7">
-      <c r="C330" t="s">
+    <row r="330" customHeight="1" spans="3:7">
+      <c r="C330" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D330" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="E330" t="s">
+      <c r="E330" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="F330" t="s">
+      <c r="F330" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="G330" t="s">
+      <c r="G330" s="7" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="331" ht="24" customHeight="1" spans="3:7">
-      <c r="C331" t="s">
+    <row r="331" customHeight="1" spans="3:7">
+      <c r="C331" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D331" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="E331" t="s">
+      <c r="E331" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="F331" t="s">
+      <c r="F331" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="G331" t="s">
+      <c r="G331" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="332" ht="24" customHeight="1" spans="3:7">
-      <c r="C332" t="s">
+    <row r="332" customHeight="1" spans="3:7">
+      <c r="C332" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="E332" t="s">
+      <c r="E332" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="F332" t="s">
+      <c r="F332" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="G332" t="s">
+      <c r="G332" s="7" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="333" ht="24" customHeight="1" spans="3:7">
-      <c r="C333" t="s">
+    <row r="333" customHeight="1" spans="3:7">
+      <c r="C333" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D333" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="E333" t="s">
+      <c r="E333" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="F333" t="s">
+      <c r="F333" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="G333" t="s">
+      <c r="G333" s="7" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="334" ht="24" customHeight="1" spans="3:7">
-      <c r="C334" t="s">
+    <row r="334" customHeight="1" spans="3:7">
+      <c r="C334" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D334" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="E334" t="s">
+      <c r="E334" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="F334" t="s">
+      <c r="F334" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="G334" t="s">
+      <c r="G334" s="7" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="335" ht="24" customHeight="1" spans="3:7">
-      <c r="C335" t="s">
+    <row r="335" customHeight="1" spans="3:7">
+      <c r="C335" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D335" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="E335" t="s">
+      <c r="E335" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="F335" t="s">
+      <c r="F335" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G335" t="s">
+      <c r="G335" s="7" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="336" ht="24" customHeight="1" spans="3:7">
-      <c r="C336" t="s">
+    <row r="336" customHeight="1" spans="3:7">
+      <c r="C336" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D336" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="E336" t="s">
+      <c r="E336" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="F336" t="s">
+      <c r="F336" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="G336" t="s">
+      <c r="G336" s="7" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="337" ht="24" customHeight="1" spans="3:7">
-      <c r="C337" t="s">
+    <row r="337" customHeight="1" spans="3:7">
+      <c r="C337" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="E337" t="s">
+      <c r="E337" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="F337" t="s">
+      <c r="F337" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="G337" t="s">
+      <c r="G337" s="7" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="338" ht="24" customHeight="1" spans="3:7">
-      <c r="C338" t="s">
+    <row r="338" customHeight="1" spans="3:7">
+      <c r="C338" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D338" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="E338" t="s">
+      <c r="E338" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="F338" t="s">
+      <c r="F338" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="G338" t="s">
+      <c r="G338" s="7" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="339" ht="24" customHeight="1" spans="3:7">
-      <c r="C339" t="s">
+    <row r="339" customHeight="1" spans="3:7">
+      <c r="C339" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="E339" t="s">
+      <c r="E339" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="F339" t="s">
+      <c r="F339" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="G339" t="s">
+      <c r="G339" s="7" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="340" ht="24" customHeight="1" spans="3:7">
-      <c r="C340" t="s">
+    <row r="340" customHeight="1" spans="3:7">
+      <c r="C340" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="E340" t="s">
+      <c r="E340" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="F340" t="s">
+      <c r="F340" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="G340" t="s">
+      <c r="G340" s="7" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="341" ht="24" customHeight="1" spans="3:7">
-      <c r="C341" t="s">
+    <row r="341" customHeight="1" spans="3:7">
+      <c r="C341" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D341" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="E341" t="s">
+      <c r="E341" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="F341" t="s">
+      <c r="F341" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G341" t="s">
+      <c r="G341" s="7" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="342" ht="24" customHeight="1" spans="3:7">
-      <c r="C342" t="s">
+    <row r="342" customHeight="1" spans="3:7">
+      <c r="C342" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="E342" t="s">
+      <c r="E342" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="F342" t="s">
+      <c r="F342" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="G342" t="s">
+      <c r="G342" s="7" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="343" ht="24" customHeight="1" spans="3:7">
-      <c r="C343" t="s">
+    <row r="343" customHeight="1" spans="3:7">
+      <c r="C343" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="E343" t="s">
+      <c r="E343" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="F343" t="s">
+      <c r="F343" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="G343" t="s">
+      <c r="G343" s="7" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="344" ht="24" customHeight="1" spans="3:7">
-      <c r="C344" t="s">
+    <row r="344" customHeight="1" spans="3:7">
+      <c r="C344" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="E344" t="s">
+      <c r="E344" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="F344" t="s">
+      <c r="F344" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="G344" t="s">
+      <c r="G344" s="7" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="345" ht="24" customHeight="1" spans="3:7">
-      <c r="C345" t="s">
+    <row r="345" customHeight="1" spans="3:7">
+      <c r="C345" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="E345" t="s">
+      <c r="E345" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="F345" t="s">
+      <c r="F345" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="G345" t="s">
+      <c r="G345" s="7" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="346" ht="24" customHeight="1" spans="3:7">
-      <c r="C346" t="s">
+    <row r="346" customHeight="1" spans="3:7">
+      <c r="C346" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D346" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="E346" t="s">
+      <c r="E346" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="F346" t="s">
+      <c r="F346" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="G346" t="s">
+      <c r="G346" s="7" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="347" ht="24" customHeight="1" spans="3:7">
-      <c r="C347" t="s">
+    <row r="347" customHeight="1" spans="3:7">
+      <c r="C347" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D347" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="E347" t="s">
+      <c r="E347" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="F347" t="s">
+      <c r="F347" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G347" t="s">
+      <c r="G347" s="7" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="348" ht="24" customHeight="1" spans="3:7">
-      <c r="C348" t="s">
+    <row r="348" customHeight="1" spans="3:7">
+      <c r="C348" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D348" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="E348" t="s">
+      <c r="E348" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="F348" t="s">
+      <c r="F348" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="G348" t="s">
+      <c r="G348" s="7" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="349" ht="24" customHeight="1" spans="3:7">
-      <c r="C349" t="s">
+    <row r="349" customHeight="1" spans="3:7">
+      <c r="C349" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D349" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="E349" t="s">
+      <c r="E349" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="F349" t="s">
+      <c r="F349" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="G349" t="s">
+      <c r="G349" s="7" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="350" ht="24" customHeight="1" spans="3:7">
-      <c r="C350" t="s">
+    <row r="350" customHeight="1" spans="3:7">
+      <c r="C350" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D350" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="E350" t="s">
+      <c r="E350" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="F350" t="s">
+      <c r="F350" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="G350" t="s">
+      <c r="G350" s="7" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="351" ht="24" customHeight="1" spans="3:7">
-      <c r="C351" t="s">
+    <row r="351" customHeight="1" spans="3:7">
+      <c r="C351" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D351" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="E351" t="s">
+      <c r="E351" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="F351" t="s">
+      <c r="F351" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="G351" t="s">
+      <c r="G351" s="7" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="352" ht="24" customHeight="1" spans="3:7">
-      <c r="C352" t="s">
+    <row r="352" customHeight="1" spans="3:7">
+      <c r="C352" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D352" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="E352" t="s">
+      <c r="E352" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="F352" t="s">
+      <c r="F352" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="G352" t="s">
+      <c r="G352" s="7" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="353" ht="24" customHeight="1" spans="3:7">
-      <c r="C353" t="s">
+    <row r="353" customHeight="1" spans="3:7">
+      <c r="C353" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D353" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="E353" t="s">
+      <c r="E353" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="F353" t="s">
+      <c r="F353" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="G353" t="s">
+      <c r="G353" s="7" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="354" ht="24" customHeight="1" spans="3:7">
-      <c r="C354" t="s">
+    <row r="354" customHeight="1" spans="3:7">
+      <c r="C354" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D354" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="E354" t="s">
+      <c r="E354" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="F354" t="s">
+      <c r="F354" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="G354" t="s">
+      <c r="G354" s="7" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="355" ht="24" customHeight="1" spans="3:7">
-      <c r="C355" t="s">
+    <row r="355" customHeight="1" spans="3:7">
+      <c r="C355" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D355" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="E355" t="s">
+      <c r="E355" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="F355" t="s">
+      <c r="F355" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="G355" t="s">
+      <c r="G355" s="7" t="s">
         <v>701</v>
       </c>
     </row>

--- a/Excel/EquipRefineConfig.xlsx
+++ b/Excel/EquipRefineConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="725">
   <si>
     <t>_id</t>
   </si>
@@ -2132,7 +2132,76 @@
     <t>350</t>
   </si>
   <si>
-    <t>4914000</t>
+    <t>351</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>375</t>
   </si>
 </sst>
 </file>
@@ -3106,10 +3175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:G355"/>
+  <dimension ref="C1:G380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="H214" sqref="H214"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="K379" sqref="K379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="6"/>
@@ -9131,8 +9200,533 @@
       <c r="F355" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="G355" s="7" t="s">
+      <c r="G355" s="7">
+        <v>4400000</v>
+      </c>
+    </row>
+    <row r="356" customHeight="1" spans="3:7">
+      <c r="C356" s="7" t="s">
         <v>701</v>
+      </c>
+      <c r="D356" s="7">
+        <f t="shared" ref="D356:D380" si="0">D355+1</f>
+        <v>351</v>
+      </c>
+      <c r="E356" s="7">
+        <f t="shared" ref="E356:E380" si="1">E355+1</f>
+        <v>351</v>
+      </c>
+      <c r="F356" s="7">
+        <f t="shared" ref="F356:F380" si="2">F355+1</f>
+        <v>301</v>
+      </c>
+      <c r="G356" s="7">
+        <f t="shared" ref="G356:G380" si="3">G355+100000</f>
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="357" customHeight="1" spans="3:7">
+      <c r="C357" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="D357" s="7">
+        <f t="shared" si="0"/>
+        <v>352</v>
+      </c>
+      <c r="E357" s="7">
+        <f t="shared" si="1"/>
+        <v>352</v>
+      </c>
+      <c r="F357" s="7">
+        <f t="shared" si="2"/>
+        <v>302</v>
+      </c>
+      <c r="G357" s="7">
+        <f t="shared" si="3"/>
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="358" customHeight="1" spans="3:7">
+      <c r="C358" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D358" s="7">
+        <f t="shared" si="0"/>
+        <v>353</v>
+      </c>
+      <c r="E358" s="7">
+        <f t="shared" si="1"/>
+        <v>353</v>
+      </c>
+      <c r="F358" s="7">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="G358" s="7">
+        <f t="shared" si="3"/>
+        <v>4700000</v>
+      </c>
+    </row>
+    <row r="359" customHeight="1" spans="3:7">
+      <c r="C359" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="D359" s="7">
+        <f t="shared" si="0"/>
+        <v>354</v>
+      </c>
+      <c r="E359" s="7">
+        <f t="shared" si="1"/>
+        <v>354</v>
+      </c>
+      <c r="F359" s="7">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="G359" s="7">
+        <f t="shared" si="3"/>
+        <v>4800000</v>
+      </c>
+    </row>
+    <row r="360" customHeight="1" spans="3:7">
+      <c r="C360" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="D360" s="7">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="E360" s="7">
+        <f t="shared" si="1"/>
+        <v>355</v>
+      </c>
+      <c r="F360" s="7">
+        <f t="shared" si="2"/>
+        <v>305</v>
+      </c>
+      <c r="G360" s="7">
+        <f t="shared" si="3"/>
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="361" customHeight="1" spans="3:7">
+      <c r="C361" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="D361" s="7">
+        <f t="shared" si="0"/>
+        <v>356</v>
+      </c>
+      <c r="E361" s="7">
+        <f t="shared" si="1"/>
+        <v>356</v>
+      </c>
+      <c r="F361" s="7">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="G361" s="7">
+        <f t="shared" si="3"/>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="362" customHeight="1" spans="3:7">
+      <c r="C362" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="D362" s="7">
+        <f t="shared" si="0"/>
+        <v>357</v>
+      </c>
+      <c r="E362" s="7">
+        <f t="shared" si="1"/>
+        <v>357</v>
+      </c>
+      <c r="F362" s="7">
+        <f t="shared" si="2"/>
+        <v>307</v>
+      </c>
+      <c r="G362" s="7">
+        <f t="shared" si="3"/>
+        <v>5100000</v>
+      </c>
+    </row>
+    <row r="363" customHeight="1" spans="3:7">
+      <c r="C363" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="D363" s="7">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+      <c r="E363" s="7">
+        <f t="shared" si="1"/>
+        <v>358</v>
+      </c>
+      <c r="F363" s="7">
+        <f t="shared" si="2"/>
+        <v>308</v>
+      </c>
+      <c r="G363" s="7">
+        <f t="shared" si="3"/>
+        <v>5200000</v>
+      </c>
+    </row>
+    <row r="364" customHeight="1" spans="3:7">
+      <c r="C364" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="D364" s="7">
+        <f t="shared" si="0"/>
+        <v>359</v>
+      </c>
+      <c r="E364" s="7">
+        <f t="shared" si="1"/>
+        <v>359</v>
+      </c>
+      <c r="F364" s="7">
+        <f t="shared" si="2"/>
+        <v>309</v>
+      </c>
+      <c r="G364" s="7">
+        <f t="shared" si="3"/>
+        <v>5300000</v>
+      </c>
+    </row>
+    <row r="365" customHeight="1" spans="3:7">
+      <c r="C365" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D365" s="7">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="E365" s="7">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="F365" s="7">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="G365" s="7">
+        <f t="shared" si="3"/>
+        <v>5400000</v>
+      </c>
+    </row>
+    <row r="366" customHeight="1" spans="3:7">
+      <c r="C366" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="D366" s="7">
+        <f t="shared" si="0"/>
+        <v>361</v>
+      </c>
+      <c r="E366" s="7">
+        <f t="shared" si="1"/>
+        <v>361</v>
+      </c>
+      <c r="F366" s="7">
+        <f t="shared" si="2"/>
+        <v>311</v>
+      </c>
+      <c r="G366" s="7">
+        <f t="shared" si="3"/>
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="367" customHeight="1" spans="3:7">
+      <c r="C367" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="D367" s="7">
+        <f t="shared" si="0"/>
+        <v>362</v>
+      </c>
+      <c r="E367" s="7">
+        <f t="shared" si="1"/>
+        <v>362</v>
+      </c>
+      <c r="F367" s="7">
+        <f t="shared" si="2"/>
+        <v>312</v>
+      </c>
+      <c r="G367" s="7">
+        <f t="shared" si="3"/>
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="368" customHeight="1" spans="3:7">
+      <c r="C368" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D368" s="7">
+        <f t="shared" si="0"/>
+        <v>363</v>
+      </c>
+      <c r="E368" s="7">
+        <f t="shared" si="1"/>
+        <v>363</v>
+      </c>
+      <c r="F368" s="7">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+      <c r="G368" s="7">
+        <f t="shared" si="3"/>
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="369" customHeight="1" spans="3:7">
+      <c r="C369" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="D369" s="7">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="E369" s="7">
+        <f t="shared" si="1"/>
+        <v>364</v>
+      </c>
+      <c r="F369" s="7">
+        <f t="shared" si="2"/>
+        <v>314</v>
+      </c>
+      <c r="G369" s="7">
+        <f t="shared" si="3"/>
+        <v>5800000</v>
+      </c>
+    </row>
+    <row r="370" customHeight="1" spans="3:7">
+      <c r="C370" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="D370" s="7">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="E370" s="7">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+      <c r="F370" s="7">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="G370" s="7">
+        <f t="shared" si="3"/>
+        <v>5900000</v>
+      </c>
+    </row>
+    <row r="371" customHeight="1" spans="3:7">
+      <c r="C371" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="D371" s="7">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+      <c r="E371" s="7">
+        <f t="shared" si="1"/>
+        <v>366</v>
+      </c>
+      <c r="F371" s="7">
+        <f t="shared" si="2"/>
+        <v>316</v>
+      </c>
+      <c r="G371" s="7">
+        <f t="shared" si="3"/>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="372" customHeight="1" spans="3:7">
+      <c r="C372" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="D372" s="7">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="E372" s="7">
+        <f t="shared" si="1"/>
+        <v>367</v>
+      </c>
+      <c r="F372" s="7">
+        <f t="shared" si="2"/>
+        <v>317</v>
+      </c>
+      <c r="G372" s="7">
+        <f t="shared" si="3"/>
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="373" customHeight="1" spans="3:7">
+      <c r="C373" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="D373" s="7">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
+      <c r="E373" s="7">
+        <f t="shared" si="1"/>
+        <v>368</v>
+      </c>
+      <c r="F373" s="7">
+        <f t="shared" si="2"/>
+        <v>318</v>
+      </c>
+      <c r="G373" s="7">
+        <f t="shared" si="3"/>
+        <v>6200000</v>
+      </c>
+    </row>
+    <row r="374" customHeight="1" spans="3:7">
+      <c r="C374" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="D374" s="7">
+        <f t="shared" si="0"/>
+        <v>369</v>
+      </c>
+      <c r="E374" s="7">
+        <f t="shared" si="1"/>
+        <v>369</v>
+      </c>
+      <c r="F374" s="7">
+        <f t="shared" si="2"/>
+        <v>319</v>
+      </c>
+      <c r="G374" s="7">
+        <f t="shared" si="3"/>
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="375" customHeight="1" spans="3:7">
+      <c r="C375" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="D375" s="7">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="E375" s="7">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+      <c r="F375" s="7">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="G375" s="7">
+        <f t="shared" si="3"/>
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="376" customHeight="1" spans="3:7">
+      <c r="C376" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="D376" s="7">
+        <f t="shared" si="0"/>
+        <v>371</v>
+      </c>
+      <c r="E376" s="7">
+        <f t="shared" si="1"/>
+        <v>371</v>
+      </c>
+      <c r="F376" s="7">
+        <f t="shared" si="2"/>
+        <v>321</v>
+      </c>
+      <c r="G376" s="7">
+        <f t="shared" si="3"/>
+        <v>6500000</v>
+      </c>
+    </row>
+    <row r="377" customHeight="1" spans="3:7">
+      <c r="C377" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="D377" s="7">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+      <c r="E377" s="7">
+        <f t="shared" si="1"/>
+        <v>372</v>
+      </c>
+      <c r="F377" s="7">
+        <f t="shared" si="2"/>
+        <v>322</v>
+      </c>
+      <c r="G377" s="7">
+        <f t="shared" si="3"/>
+        <v>6600000</v>
+      </c>
+    </row>
+    <row r="378" customHeight="1" spans="3:7">
+      <c r="C378" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="D378" s="7">
+        <f t="shared" si="0"/>
+        <v>373</v>
+      </c>
+      <c r="E378" s="7">
+        <f t="shared" si="1"/>
+        <v>373</v>
+      </c>
+      <c r="F378" s="7">
+        <f t="shared" si="2"/>
+        <v>323</v>
+      </c>
+      <c r="G378" s="7">
+        <f t="shared" si="3"/>
+        <v>6700000</v>
+      </c>
+    </row>
+    <row r="379" customHeight="1" spans="3:7">
+      <c r="C379" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="D379" s="7">
+        <f t="shared" si="0"/>
+        <v>374</v>
+      </c>
+      <c r="E379" s="7">
+        <f t="shared" si="1"/>
+        <v>374</v>
+      </c>
+      <c r="F379" s="7">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="G379" s="7">
+        <f t="shared" si="3"/>
+        <v>6800000</v>
+      </c>
+    </row>
+    <row r="380" customHeight="1" spans="3:7">
+      <c r="C380" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D380" s="7">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="E380" s="7">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+      <c r="F380" s="7">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="G380" s="7">
+        <f t="shared" si="3"/>
+        <v>6900000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EquipRefineConfig.xlsx
+++ b/Excel/EquipRefineConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="750">
   <si>
     <t>_id</t>
   </si>
@@ -2202,6 +2202,81 @@
   </si>
   <si>
     <t>375</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>400</t>
   </si>
 </sst>
 </file>
@@ -3175,10 +3250,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:G380"/>
+  <dimension ref="C1:G405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="K379" sqref="K379"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="J396" sqref="J396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="6"/>
@@ -9209,19 +9284,19 @@
         <v>701</v>
       </c>
       <c r="D356" s="7">
-        <f t="shared" ref="D356:D380" si="0">D355+1</f>
+        <f t="shared" ref="D356:D405" si="0">D355+1</f>
         <v>351</v>
       </c>
       <c r="E356" s="7">
-        <f t="shared" ref="E356:E380" si="1">E355+1</f>
+        <f t="shared" ref="E356:E405" si="1">E355+1</f>
         <v>351</v>
       </c>
       <c r="F356" s="7">
-        <f t="shared" ref="F356:F380" si="2">F355+1</f>
+        <f t="shared" ref="F356:F405" si="2">F355+1</f>
         <v>301</v>
       </c>
       <c r="G356" s="7">
-        <f t="shared" ref="G356:G380" si="3">G355+100000</f>
+        <f t="shared" ref="G356:G382" si="3">G355+100000</f>
         <v>4500000</v>
       </c>
     </row>
@@ -9727,6 +9802,531 @@
       <c r="G380" s="7">
         <f t="shared" si="3"/>
         <v>6900000</v>
+      </c>
+    </row>
+    <row r="381" customHeight="1" spans="3:7">
+      <c r="C381" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="D381" s="7">
+        <f t="shared" si="0"/>
+        <v>376</v>
+      </c>
+      <c r="E381" s="7">
+        <f t="shared" si="1"/>
+        <v>376</v>
+      </c>
+      <c r="F381" s="7">
+        <f t="shared" si="2"/>
+        <v>326</v>
+      </c>
+      <c r="G381" s="7">
+        <f t="shared" si="3"/>
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="382" customHeight="1" spans="3:7">
+      <c r="C382" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="D382" s="7">
+        <f t="shared" si="0"/>
+        <v>377</v>
+      </c>
+      <c r="E382" s="7">
+        <f t="shared" si="1"/>
+        <v>377</v>
+      </c>
+      <c r="F382" s="7">
+        <f t="shared" si="2"/>
+        <v>327</v>
+      </c>
+      <c r="G382" s="7">
+        <f t="shared" ref="G382:G405" si="4">G381+200000</f>
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="383" customHeight="1" spans="3:7">
+      <c r="C383" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="D383" s="7">
+        <f t="shared" si="0"/>
+        <v>378</v>
+      </c>
+      <c r="E383" s="7">
+        <f t="shared" si="1"/>
+        <v>378</v>
+      </c>
+      <c r="F383" s="7">
+        <f t="shared" si="2"/>
+        <v>328</v>
+      </c>
+      <c r="G383" s="7">
+        <f t="shared" si="4"/>
+        <v>7400000</v>
+      </c>
+    </row>
+    <row r="384" customHeight="1" spans="3:7">
+      <c r="C384" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="D384" s="7">
+        <f t="shared" si="0"/>
+        <v>379</v>
+      </c>
+      <c r="E384" s="7">
+        <f t="shared" si="1"/>
+        <v>379</v>
+      </c>
+      <c r="F384" s="7">
+        <f t="shared" si="2"/>
+        <v>329</v>
+      </c>
+      <c r="G384" s="7">
+        <f t="shared" si="4"/>
+        <v>7600000</v>
+      </c>
+    </row>
+    <row r="385" customHeight="1" spans="3:7">
+      <c r="C385" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="D385" s="7">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="E385" s="7">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="F385" s="7">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="G385" s="7">
+        <f t="shared" si="4"/>
+        <v>7800000</v>
+      </c>
+    </row>
+    <row r="386" customHeight="1" spans="3:7">
+      <c r="C386" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="D386" s="7">
+        <f t="shared" si="0"/>
+        <v>381</v>
+      </c>
+      <c r="E386" s="7">
+        <f t="shared" si="1"/>
+        <v>381</v>
+      </c>
+      <c r="F386" s="7">
+        <f t="shared" si="2"/>
+        <v>331</v>
+      </c>
+      <c r="G386" s="7">
+        <f t="shared" si="4"/>
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="387" customHeight="1" spans="3:7">
+      <c r="C387" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="D387" s="7">
+        <f t="shared" si="0"/>
+        <v>382</v>
+      </c>
+      <c r="E387" s="7">
+        <f t="shared" si="1"/>
+        <v>382</v>
+      </c>
+      <c r="F387" s="7">
+        <f t="shared" si="2"/>
+        <v>332</v>
+      </c>
+      <c r="G387" s="7">
+        <f t="shared" si="4"/>
+        <v>8200000</v>
+      </c>
+    </row>
+    <row r="388" customHeight="1" spans="3:7">
+      <c r="C388" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="D388" s="7">
+        <f t="shared" si="0"/>
+        <v>383</v>
+      </c>
+      <c r="E388" s="7">
+        <f t="shared" si="1"/>
+        <v>383</v>
+      </c>
+      <c r="F388" s="7">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="G388" s="7">
+        <f t="shared" si="4"/>
+        <v>8400000</v>
+      </c>
+    </row>
+    <row r="389" customHeight="1" spans="3:7">
+      <c r="C389" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="D389" s="7">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+      <c r="E389" s="7">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+      <c r="F389" s="7">
+        <f t="shared" si="2"/>
+        <v>334</v>
+      </c>
+      <c r="G389" s="7">
+        <f t="shared" si="4"/>
+        <v>8600000</v>
+      </c>
+    </row>
+    <row r="390" customHeight="1" spans="3:7">
+      <c r="C390" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="D390" s="7">
+        <f t="shared" si="0"/>
+        <v>385</v>
+      </c>
+      <c r="E390" s="7">
+        <f t="shared" si="1"/>
+        <v>385</v>
+      </c>
+      <c r="F390" s="7">
+        <f t="shared" si="2"/>
+        <v>335</v>
+      </c>
+      <c r="G390" s="7">
+        <f t="shared" si="4"/>
+        <v>8800000</v>
+      </c>
+    </row>
+    <row r="391" customHeight="1" spans="3:7">
+      <c r="C391" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="D391" s="7">
+        <f t="shared" si="0"/>
+        <v>386</v>
+      </c>
+      <c r="E391" s="7">
+        <f t="shared" si="1"/>
+        <v>386</v>
+      </c>
+      <c r="F391" s="7">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="G391" s="7">
+        <f t="shared" si="4"/>
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="392" customHeight="1" spans="3:7">
+      <c r="C392" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="D392" s="7">
+        <f t="shared" si="0"/>
+        <v>387</v>
+      </c>
+      <c r="E392" s="7">
+        <f t="shared" si="1"/>
+        <v>387</v>
+      </c>
+      <c r="F392" s="7">
+        <f t="shared" si="2"/>
+        <v>337</v>
+      </c>
+      <c r="G392" s="7">
+        <f t="shared" si="4"/>
+        <v>9200000</v>
+      </c>
+    </row>
+    <row r="393" customHeight="1" spans="3:7">
+      <c r="C393" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="D393" s="7">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="E393" s="7">
+        <f t="shared" si="1"/>
+        <v>388</v>
+      </c>
+      <c r="F393" s="7">
+        <f t="shared" si="2"/>
+        <v>338</v>
+      </c>
+      <c r="G393" s="7">
+        <f t="shared" si="4"/>
+        <v>9400000</v>
+      </c>
+    </row>
+    <row r="394" customHeight="1" spans="3:7">
+      <c r="C394" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D394" s="7">
+        <f t="shared" si="0"/>
+        <v>389</v>
+      </c>
+      <c r="E394" s="7">
+        <f t="shared" si="1"/>
+        <v>389</v>
+      </c>
+      <c r="F394" s="7">
+        <f t="shared" si="2"/>
+        <v>339</v>
+      </c>
+      <c r="G394" s="7">
+        <f t="shared" si="4"/>
+        <v>9600000</v>
+      </c>
+    </row>
+    <row r="395" customHeight="1" spans="3:7">
+      <c r="C395" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="D395" s="7">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="E395" s="7">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+      <c r="F395" s="7">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="G395" s="7">
+        <f t="shared" si="4"/>
+        <v>9800000</v>
+      </c>
+    </row>
+    <row r="396" customHeight="1" spans="3:7">
+      <c r="C396" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="D396" s="7">
+        <f t="shared" si="0"/>
+        <v>391</v>
+      </c>
+      <c r="E396" s="7">
+        <f t="shared" si="1"/>
+        <v>391</v>
+      </c>
+      <c r="F396" s="7">
+        <f t="shared" si="2"/>
+        <v>341</v>
+      </c>
+      <c r="G396" s="7">
+        <f t="shared" si="4"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="397" customHeight="1" spans="3:7">
+      <c r="C397" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="D397" s="7">
+        <f t="shared" si="0"/>
+        <v>392</v>
+      </c>
+      <c r="E397" s="7">
+        <f t="shared" si="1"/>
+        <v>392</v>
+      </c>
+      <c r="F397" s="7">
+        <f t="shared" si="2"/>
+        <v>342</v>
+      </c>
+      <c r="G397" s="7">
+        <f t="shared" si="4"/>
+        <v>10200000</v>
+      </c>
+    </row>
+    <row r="398" customHeight="1" spans="3:7">
+      <c r="C398" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="D398" s="7">
+        <f t="shared" si="0"/>
+        <v>393</v>
+      </c>
+      <c r="E398" s="7">
+        <f t="shared" si="1"/>
+        <v>393</v>
+      </c>
+      <c r="F398" s="7">
+        <f t="shared" si="2"/>
+        <v>343</v>
+      </c>
+      <c r="G398" s="7">
+        <f t="shared" si="4"/>
+        <v>10400000</v>
+      </c>
+    </row>
+    <row r="399" customHeight="1" spans="3:7">
+      <c r="C399" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="D399" s="7">
+        <f t="shared" si="0"/>
+        <v>394</v>
+      </c>
+      <c r="E399" s="7">
+        <f t="shared" si="1"/>
+        <v>394</v>
+      </c>
+      <c r="F399" s="7">
+        <f t="shared" si="2"/>
+        <v>344</v>
+      </c>
+      <c r="G399" s="7">
+        <f t="shared" si="4"/>
+        <v>10600000</v>
+      </c>
+    </row>
+    <row r="400" customHeight="1" spans="3:7">
+      <c r="C400" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="D400" s="7">
+        <f t="shared" si="0"/>
+        <v>395</v>
+      </c>
+      <c r="E400" s="7">
+        <f t="shared" si="1"/>
+        <v>395</v>
+      </c>
+      <c r="F400" s="7">
+        <f t="shared" si="2"/>
+        <v>345</v>
+      </c>
+      <c r="G400" s="7">
+        <f t="shared" si="4"/>
+        <v>10800000</v>
+      </c>
+    </row>
+    <row r="401" customHeight="1" spans="3:7">
+      <c r="C401" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="D401" s="7">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+      <c r="E401" s="7">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
+      <c r="F401" s="7">
+        <f t="shared" si="2"/>
+        <v>346</v>
+      </c>
+      <c r="G401" s="7">
+        <f t="shared" si="4"/>
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="402" customHeight="1" spans="3:7">
+      <c r="C402" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="D402" s="7">
+        <f t="shared" si="0"/>
+        <v>397</v>
+      </c>
+      <c r="E402" s="7">
+        <f t="shared" si="1"/>
+        <v>397</v>
+      </c>
+      <c r="F402" s="7">
+        <f t="shared" si="2"/>
+        <v>347</v>
+      </c>
+      <c r="G402" s="7">
+        <f t="shared" si="4"/>
+        <v>11200000</v>
+      </c>
+    </row>
+    <row r="403" customHeight="1" spans="3:7">
+      <c r="C403" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="D403" s="7">
+        <f t="shared" si="0"/>
+        <v>398</v>
+      </c>
+      <c r="E403" s="7">
+        <f t="shared" si="1"/>
+        <v>398</v>
+      </c>
+      <c r="F403" s="7">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+      <c r="G403" s="7">
+        <f t="shared" si="4"/>
+        <v>11400000</v>
+      </c>
+    </row>
+    <row r="404" customHeight="1" spans="3:7">
+      <c r="C404" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="D404" s="7">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+      <c r="E404" s="7">
+        <f t="shared" si="1"/>
+        <v>399</v>
+      </c>
+      <c r="F404" s="7">
+        <f t="shared" si="2"/>
+        <v>349</v>
+      </c>
+      <c r="G404" s="7">
+        <f t="shared" si="4"/>
+        <v>11600000</v>
+      </c>
+    </row>
+    <row r="405" customHeight="1" spans="3:7">
+      <c r="C405" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="D405" s="7">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="E405" s="7">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="F405" s="7">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="G405" s="7">
+        <f t="shared" si="4"/>
+        <v>11800000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EquipRefineConfig.xlsx
+++ b/Excel/EquipRefineConfig.xlsx
@@ -1012,10 +1012,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H19"/>
+  <dimension ref="C1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -1316,13 +1316,30 @@
         <v>501</v>
       </c>
       <c r="E19" s="1">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="F19" s="1">
         <v>57000000</v>
       </c>
       <c r="G19" s="1">
         <v>700000</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:7">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1">
+        <v>551</v>
+      </c>
+      <c r="E20" s="1">
+        <v>600</v>
+      </c>
+      <c r="F20" s="1">
+        <v>92000000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>800000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EquipRefineConfig.xlsx
+++ b/Excel/EquipRefineConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1012,10 +1012,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H20"/>
+  <dimension ref="C1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
@@ -1342,9 +1342,26 @@
         <v>800000</v>
       </c>
     </row>
+    <row r="21" customHeight="1" spans="3:7">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>601</v>
+      </c>
+      <c r="E21" s="1">
+        <v>650</v>
+      </c>
+      <c r="F21" s="1">
+        <v>132000000</v>
+      </c>
+      <c r="G21" s="1">
+        <v>900000</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2 D2 E2 F2 G2 C3 D3 E3 F3 G3 D4 E4 F4 G4 D5 E5 F5 G5 C4:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C2:G2 D3:G3 E4:G4 E5:G5 C3:C5 D4:D5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
